--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33052-d10805928-Reviews-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Santa-Monica.h16121005.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1377 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r589536989-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>33052</t>
+  </si>
+  <si>
+    <t>10805928</t>
+  </si>
+  <si>
+    <t>589536989</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Beautiful new Courtyard in the heart of Santa Monica</t>
+  </si>
+  <si>
+    <t>The first time I stayed at this lovely new hotel I was upgraded before I arrived to a huge studio with full floor to ceiling windows. Very impressed even with the view of the Metro line.The pool area and hot tub are just big enough.My second stay I had a basic room looking directly into a wall. I used online check in but they did not process the request. I then checked in around 1PM and they ran my card and put me on the list.At 3PM i was notified the room was ready. They then checked me in again (cr card and ID) and I got a room on the second floor.This is one of my favorite hotels in Santa Monica.Odd building design. Few balcony's, few windows that open and some very closed off rooms. ie. 1 small window looking into a wall or other interior view.I feel for the staff as they are just trying to get people checked in but would love for room assignments to be done for guest the morning of or at least at online check in.Most hotel assign upgrade and block rooms the day of arrival at the latest. This was like boarding a plane.Still love the hotel, area and friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The first time I stayed at this lovely new hotel I was upgraded before I arrived to a huge studio with full floor to ceiling windows. Very impressed even with the view of the Metro line.The pool area and hot tub are just big enough.My second stay I had a basic room looking directly into a wall. I used online check in but they did not process the request. I then checked in around 1PM and they ran my card and put me on the list.At 3PM i was notified the room was ready. They then checked me in again (cr card and ID) and I got a room on the second floor.This is one of my favorite hotels in Santa Monica.Odd building design. Few balcony's, few windows that open and some very closed off rooms. ie. 1 small window looking into a wall or other interior view.I feel for the staff as they are just trying to get people checked in but would love for room assignments to be done for guest the morning of or at least at online check in.Most hotel assign upgrade and block rooms the day of arrival at the latest. This was like boarding a plane.Still love the hotel, area and friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r588597102-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>588597102</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Don’t stay here</t>
+  </si>
+  <si>
+    <t>The homeless people must love it here. While having a sandwich at the cafe, a homeless man came up and tapped on the window and was waved in by the staff. He wasn’t a guest nor did he order anything. He came in to watch a basketball game. The next man who was welcomed in, promptly chased the guests out who were trying to eat because of the overpowering stench of urine - not to mention the one bare foot. And forget about stepping out the door where you’re immediately greeted by multiple people begging and/or high as a kite. I’m sorry for the glaring societal problems in this area however, I did not ever feel safe. The hotel should be responsible for the security of the grounds and the common areas. I felt like I was volunteering at a homeless shelter - for $400 per night. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The homeless people must love it here. While having a sandwich at the cafe, a homeless man came up and tapped on the window and was waved in by the staff. He wasn’t a guest nor did he order anything. He came in to watch a basketball game. The next man who was welcomed in, promptly chased the guests out who were trying to eat because of the overpowering stench of urine - not to mention the one bare foot. And forget about stepping out the door where you’re immediately greeted by multiple people begging and/or high as a kite. I’m sorry for the glaring societal problems in this area however, I did not ever feel safe. The hotel should be responsible for the security of the grounds and the common areas. I felt like I was volunteering at a homeless shelter - for $400 per night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r587948688-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>587948688</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Cannot fault</t>
+  </si>
+  <si>
+    <t>Staff are friendly and welcoming, nothing is too much trouble. We were only in our room 10 minutes when a staff member came up and delivered a complimentary muffin with a candle and gorgeous plate arrangement for my 21st birthday, we had only briefly mentioned the occasion in passing to the check in staff and was blown away by their hospitality! The rooms are a very decent size with the bathrooms being impeccably clean and i’m VERT fond of the different shower settings. Would 100% recommend to a friend and will be visiting again for future trips to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Staff are friendly and welcoming, nothing is too much trouble. We were only in our room 10 minutes when a staff member came up and delivered a complimentary muffin with a candle and gorgeous plate arrangement for my 21st birthday, we had only briefly mentioned the occasion in passing to the check in staff and was blown away by their hospitality! The rooms are a very decent size with the bathrooms being impeccably clean and i’m VERT fond of the different shower settings. Would 100% recommend to a friend and will be visiting again for future trips to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r582472836-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>582472836</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>This hotel is a great location, only a few blocks from the pier and the Promenade.  You can walk to many restaurants and stores.  The building is new and the rooms are spacious with great bathrooms.  Some rooms have a balcony.  It is near the train.  I did not find noise to be an issue, it's just typical white noise that you would find staying in another city.  Staff was very accommodating.  nice workout room and small pool with a view.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel is a great location, only a few blocks from the pier and the Promenade.  You can walk to many restaurants and stores.  The building is new and the rooms are spacious with great bathrooms.  Some rooms have a balcony.  It is near the train.  I did not find noise to be an issue, it's just typical white noise that you would find staying in another city.  Staff was very accommodating.  nice workout room and small pool with a view.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r580275888-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>580275888</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>Stayed for one night and liked a lot. Great bed, nice empty refrigerator, quiet, nice breakfast cafe. Started visit badly when no cart to take luggage. Later found out only 2 for the hotel. Not crazy about the uncarpeted floors, and no water to drink in the room. Great location to the pier and beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed for one night and liked a lot. Great bed, nice empty refrigerator, quiet, nice breakfast cafe. Started visit badly when no cart to take luggage. Later found out only 2 for the hotel. Not crazy about the uncarpeted floors, and no water to drink in the room. Great location to the pier and beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r578569690-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>578569690</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Great location nice hotel</t>
+  </si>
+  <si>
+    <t>New hotel with metro line station across the street for no hassle commute into downtown LA. You can rent bikes for touring around Santa Monica at the station as well. Just a few blocks from the pier, shopping and the beach. The new design features large rooms with hard wood floors and large showers. Water conservation notice in rooms. The faucet flow at the sink is very low-the shower was excellent. Their is an on site restaurant. I loved mural artwork and contemporary lobby furnishings. The pool and hot tub are located on the second floor. There is a fire pit and loads of comfortable seating. Very nice environment to relax throughout the day and the evening. All amenities require key access big plus. Three down sides- the soft mattress and the $42.00 parking fee. We found a garage couple blocks away for $17.50.  The staff was very friendly. However we waited way too long for assistance to checkin. Highly recommend checking out their rooms with balconies sun decks and ocean views. We had studio king with balcony before necessity forced us to switch to a double.  I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>New hotel with metro line station across the street for no hassle commute into downtown LA. You can rent bikes for touring around Santa Monica at the station as well. Just a few blocks from the pier, shopping and the beach. The new design features large rooms with hard wood floors and large showers. Water conservation notice in rooms. The faucet flow at the sink is very low-the shower was excellent. Their is an on site restaurant. I loved mural artwork and contemporary lobby furnishings. The pool and hot tub are located on the second floor. There is a fire pit and loads of comfortable seating. Very nice environment to relax throughout the day and the evening. All amenities require key access big plus. Three down sides- the soft mattress and the $42.00 parking fee. We found a garage couple blocks away for $17.50.  The staff was very friendly. However we waited way too long for assistance to checkin. Highly recommend checking out their rooms with balconies sun decks and ocean views. We had studio king with balcony before necessity forced us to switch to a double.  I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r577449573-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>577449573</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Great location/ Ok ammemities</t>
+  </si>
+  <si>
+    <t>Courtyard Santa Monica is in a great location.  A few blocks from the Santa Monica Pier.  Streets of shopping and restaurants just around the corner.  Small restaurant inside for breakfast and dismal exercise room.  Staff extremely nice.  ( Sergio )Prime location sub Courtyard Marriott amenities. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Courtyard Santa Monica is in a great location.  A few blocks from the Santa Monica Pier.  Streets of shopping and restaurants just around the corner.  Small restaurant inside for breakfast and dismal exercise room.  Staff extremely nice.  ( Sergio )Prime location sub Courtyard Marriott amenities. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r575237845-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>575237845</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Clean, convenient with average service and amenities</t>
+  </si>
+  <si>
+    <t>Or family of seven stayed here for 2 nights, booking a total of 3 rooms. Overall, it was a good experience but not someplace I would rush back to.  Rooms/location: The rooms were clean and comfortable.  We have allergies and like that there are no rugs.  The hotel was in easy walking distance of the Pier, Promenade and a wide variety of shopping and dining options.  We were not bothered by street noise but could hear our neighbor's television.Food:  The lobby cafe serves Starbuckcs coffee, and is overpriced and understaffed for the morning rush.  The lobby shop offers convenience food, mostly junk food options.  Staff:  The valet and front desk staff were okay, not especially friendly or helpful.  Parking: Parking is a predatory $42 per day. There is public parking available one block away for $17.50 (overnight rate).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Or family of seven stayed here for 2 nights, booking a total of 3 rooms. Overall, it was a good experience but not someplace I would rush back to.  Rooms/location: The rooms were clean and comfortable.  We have allergies and like that there are no rugs.  The hotel was in easy walking distance of the Pier, Promenade and a wide variety of shopping and dining options.  We were not bothered by street noise but could hear our neighbor's television.Food:  The lobby cafe serves Starbuckcs coffee, and is overpriced and understaffed for the morning rush.  The lobby shop offers convenience food, mostly junk food options.  Staff:  The valet and front desk staff were okay, not especially friendly or helpful.  Parking: Parking is a predatory $42 per day. There is public parking available one block away for $17.50 (overnight rate).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r572975098-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>572975098</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Noise issue at 5am left us unhappy...</t>
+  </si>
+  <si>
+    <t>Excited to stay in downtown Santa Monica while on vacation. Picked this location - although a little pricy for a Courtyard — as close to everything, and Hotel recently remodeled. No carpet anywhere. Made for a very hollow room. Problem arose at 5am when noise woke us up from guest overhead.... the tap dancing/clicking went on for over an hour. Went to front desk who was confirmed they’re aware of potential noise issues.....they agreed how annoying it was! We could change rooms if we wanted. And was told marriott take care of us for the inconvenience / I thanked him. We were staying a second night. Our room averaged $400 per night. We left early got our flight. Found out I received a full bill. I emailed Marriott to let them know of our situation. They had the hotel call and gave a$100 credit... don’t get me wrong, staff was very nice. I expected a better resolution when they knew they had a problem. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Excited to stay in downtown Santa Monica while on vacation. Picked this location - although a little pricy for a Courtyard — as close to everything, and Hotel recently remodeled. No carpet anywhere. Made for a very hollow room. Problem arose at 5am when noise woke us up from guest overhead.... the tap dancing/clicking went on for over an hour. Went to front desk who was confirmed they’re aware of potential noise issues.....they agreed how annoying it was! We could change rooms if we wanted. And was told marriott take care of us for the inconvenience / I thanked him. We were staying a second night. Our room averaged $400 per night. We left early got our flight. Found out I received a full bill. I emailed Marriott to let them know of our situation. They had the hotel call and gave a$100 credit... don’t get me wrong, staff was very nice. I expected a better resolution when they knew they had a problem. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r567696891-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>567696891</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Great location and service</t>
+  </si>
+  <si>
+    <t>I couldn't have been happier with this hotel.  We stayed here for the LA marathon and it was perfect.  The marathon finish line was only a couple of blocks away, so it's an easy walk back to the hotel after running all that way.  Also, the Santa Monica shuttle pick-up to the start line was blocks away, so another easy walk.  The Downtown Santa Monica metro stop is right across the street (we used it a couple of times).  If you are interested in tourist stuff, the 3rd Street Promenade is a block away.But what put it over the top for me was the service.  I wanted a late check-out so that I could shower in my room after the marathon but before I checked-out, and they were able to give me a 2:30pm checkout with no extra charge.  Thank you!The interior of the rooms are also great, especially the bathroom.  Everything is new!  There's also an on-site Starbucks.I'd stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>I couldn't have been happier with this hotel.  We stayed here for the LA marathon and it was perfect.  The marathon finish line was only a couple of blocks away, so it's an easy walk back to the hotel after running all that way.  Also, the Santa Monica shuttle pick-up to the start line was blocks away, so another easy walk.  The Downtown Santa Monica metro stop is right across the street (we used it a couple of times).  If you are interested in tourist stuff, the 3rd Street Promenade is a block away.But what put it over the top for me was the service.  I wanted a late check-out so that I could shower in my room after the marathon but before I checked-out, and they were able to give me a 2:30pm checkout with no extra charge.  Thank you!The interior of the rooms are also great, especially the bathroom.  Everything is new!  There's also an on-site Starbucks.I'd stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r567079348-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>567079348</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Mixed bag</t>
+  </si>
+  <si>
+    <t>Definitely a mixed bag at this new hotel. We chose it for the great location and the fact that we were traveling on points. The hotel is clean, new and nicely decorated. However...while I love the concept of laminate flooring in a hotel to keep things cleaner, the execution failed as we could hear EVERYTHING from upstairs. Another downside was that you could only control the thermostat to a certain point...no air conditioning below 68 degrees. For people who sleep warm, this was a definite bummer. Housekeeping was interesting...each day we couldn’t find important items and had to search the room...eventually finding them placed in random drawers or the closet (we didn’t unpack any of our items into these places, so it was an odd thing for them to put them there.)We also chose this hotel for the queen size beds vs. the standard doubles in many hotels. But the beds were so uncomfortable, we actually checked out a night early to drive home and sleep in our own beds. Parking is a ridiculous $42 a night. I also just called the hotel to check on some charges to my credit card and they have no record of us checking out early (we turned in our keys and spoke to a desk attendant) All in all, we wouldn’t visit again. Overpriced but adequate. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Definitely a mixed bag at this new hotel. We chose it for the great location and the fact that we were traveling on points. The hotel is clean, new and nicely decorated. However...while I love the concept of laminate flooring in a hotel to keep things cleaner, the execution failed as we could hear EVERYTHING from upstairs. Another downside was that you could only control the thermostat to a certain point...no air conditioning below 68 degrees. For people who sleep warm, this was a definite bummer. Housekeeping was interesting...each day we couldn’t find important items and had to search the room...eventually finding them placed in random drawers or the closet (we didn’t unpack any of our items into these places, so it was an odd thing for them to put them there.)We also chose this hotel for the queen size beds vs. the standard doubles in many hotels. But the beds were so uncomfortable, we actually checked out a night early to drive home and sleep in our own beds. Parking is a ridiculous $42 a night. I also just called the hotel to check on some charges to my credit card and they have no record of us checking out early (we turned in our keys and spoke to a desk attendant) All in all, we wouldn’t visit again. Overpriced but adequate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r566920912-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>566920912</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Great Location / Perfect for those with listening disabilities...</t>
+  </si>
+  <si>
+    <t>Location is excellent! 3 blocks from the Pier and 2 blocks from 3rd street promenade. New hotel! That's the good! Now for the bad...literally across the street from Metro station, so every 5 minutes you hear "HONK". Reminds me of the Blues Brothers movie..."how often does the train go by?....so often you won't even notice"The acoustics need improved. The hotel has laminate flooring - no carpet. Very minimalistic design, so no sound absorption. Large room but very sparse. No frills. Also, I think Shrek was upstairs and very nervous. He paced back and forth and sounded like there was an earthquake.New concept, but probably not worth the Category 8. Location is the attraction here - IF you have earplugs!MoreShow less</t>
+  </si>
+  <si>
+    <t>Location is excellent! 3 blocks from the Pier and 2 blocks from 3rd street promenade. New hotel! That's the good! Now for the bad...literally across the street from Metro station, so every 5 minutes you hear "HONK". Reminds me of the Blues Brothers movie..."how often does the train go by?....so often you won't even notice"The acoustics need improved. The hotel has laminate flooring - no carpet. Very minimalistic design, so no sound absorption. Large room but very sparse. No frills. Also, I think Shrek was upstairs and very nervous. He paced back and forth and sounded like there was an earthquake.New concept, but probably not worth the Category 8. Location is the attraction here - IF you have earplugs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r564020659-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>564020659</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Convenient Location in Downtown Santa Monica</t>
+  </si>
+  <si>
+    <t>We stayed here one night as a local "stay-cation", and were able to get a top floor room with a view of the ocean.  This is right next to the light rail station, so it was convenient to get around from the hotel.  It was nice to be so close to downtown Santa Monica and the pier.  Many restaurants to choose from that are a short walk away.  The hotel itself looks new and clean.  We enjoyed our room (two beds).  The room was clean and the staff were nice.  The only downside is since we are local, it is hard to justify paying to stay here.  We would like to go back on another "stay-cation".MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here one night as a local "stay-cation", and were able to get a top floor room with a view of the ocean.  This is right next to the light rail station, so it was convenient to get around from the hotel.  It was nice to be so close to downtown Santa Monica and the pier.  Many restaurants to choose from that are a short walk away.  The hotel itself looks new and clean.  We enjoyed our room (two beds).  The room was clean and the staff were nice.  The only downside is since we are local, it is hard to justify paying to stay here.  We would like to go back on another "stay-cation".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r563793844-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>563793844</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentine's day </t>
+  </si>
+  <si>
+    <t>This hotel is less then a year old. It has a great location. The rooms are clean. However for such a new structure I would expect the rooms to not feel so paper thin. It felt like there was zero privacy. I heard everything in the halls and neighbors next door. Beds were pretty basic. Pillows were good. Don't care for the modern retro beach themed rooms. Kinda obnoxious. Staff was nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is less then a year old. It has a great location. The rooms are clean. However for such a new structure I would expect the rooms to not feel so paper thin. It felt like there was zero privacy. I heard everything in the halls and neighbors next door. Beds were pretty basic. Pillows were good. Don't care for the modern retro beach themed rooms. Kinda obnoxious. Staff was nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r559899793-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>559899793</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheerful place </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel to attend a wedding at the Bel Air Bay Club in Pacific Palisades up the PCH. The hotel is quite centrally located in Santa Monica. Parking is valet only and at $42 a day (incentive:Santa Monica has strict parking enforcement). The hotel lobby is bright and cheerful with a clean efficient ambience. The front desk staff is friendly and helpful. The elevators (3 of them for 6 floors) are roomy. The room is spacious with comfy beds and strong shower (no bathtubs). There are plenty of electrical outlets and a wall big screen TV. View is of another hotel directly across the street or a street car/tram terminal. The hotel is within walking distance from the Third Street   Promenade and there are many eating choices within walking distance e. g. on Broadway. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel to attend a wedding at the Bel Air Bay Club in Pacific Palisades up the PCH. The hotel is quite centrally located in Santa Monica. Parking is valet only and at $42 a day (incentive:Santa Monica has strict parking enforcement). The hotel lobby is bright and cheerful with a clean efficient ambience. The front desk staff is friendly and helpful. The elevators (3 of them for 6 floors) are roomy. The room is spacious with comfy beds and strong shower (no bathtubs). There are plenty of electrical outlets and a wall big screen TV. View is of another hotel directly across the street or a street car/tram terminal. The hotel is within walking distance from the Third Street   Promenade and there are many eating choices within walking distance e. g. on Broadway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r559063084-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>559063084</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Clean place &amp; friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed here once we decided that West Hollywood was WAY too busy for us.  This was so much nice.  Good shopping and the pier within walking distance.  All the shopping and restaurants nearby make this hotel a great convenience.  I will definitely choose this hotel again if I'm ever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here once we decided that West Hollywood was WAY too busy for us.  This was so much nice.  Good shopping and the pier within walking distance.  All the shopping and restaurants nearby make this hotel a great convenience.  I will definitely choose this hotel again if I'm ever in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r558329210-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>558329210</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect location at a great price! </t>
+  </si>
+  <si>
+    <t>The perfect location to all things Santa Monica! You are just a few blocks from the pier, the beach, downtown, shopping, food. My mom &amp; I stayed here and felt very safe in the area walking alone. Room and bathroom were huge! Loved that the room had no nasty carpet, only a lament type hardwood. This hotel was the best value in terms of price &amp; quality in the area. Plus, our flight got in early and they were able to accommodate a 10am check in! Highly recommend!! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>The perfect location to all things Santa Monica! You are just a few blocks from the pier, the beach, downtown, shopping, food. My mom &amp; I stayed here and felt very safe in the area walking alone. Room and bathroom were huge! Loved that the room had no nasty carpet, only a lament type hardwood. This hotel was the best value in terms of price &amp; quality in the area. Plus, our flight got in early and they were able to accommodate a 10am check in! Highly recommend!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r557828461-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>557828461</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel and location</t>
+  </si>
+  <si>
+    <t>I stayed 3 days at this Courtyard Marriott and it’s one of the nicer Courtyards I’ve stayed in.  It’s very clean, the staff is nice and the location is walking distance to the pier and shopping. The hotel is new as well, so that’s a bonus. The fitness room is nice - all equipment worked great. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 3 days at this Courtyard Marriott and it’s one of the nicer Courtyards I’ve stayed in.  It’s very clean, the staff is nice and the location is walking distance to the pier and shopping. The hotel is new as well, so that’s a bonus. The fitness room is nice - all equipment worked great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r554823105-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>554823105</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Convenient, Clean, and Comfortable</t>
+  </si>
+  <si>
+    <t>I was in town for business and stayed here - it is obviously right next to the metro, it is walkable to a large mall, and also very convenient to Santa Monica beach/pier/restaurants. Staff were all friendly and it met the expectations that I expect out of Courtyard locations of the Marriott brand. I did not have an issue with exterior light or sound as others have mentioned, so it may just depend on if your room is facing the "wrong" direction. While I didn't have a view beyond the adjacent section of the hotel and small courtyard in between, it was peaceful and quiet. Pool looked nice and fairly relaxing considering this is more of a city environment, but I did not use so can't speak much to it. Lobby is nice, typical Courtyard pay-for-food offerings, and lounge-like lobby seating. I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>I was in town for business and stayed here - it is obviously right next to the metro, it is walkable to a large mall, and also very convenient to Santa Monica beach/pier/restaurants. Staff were all friendly and it met the expectations that I expect out of Courtyard locations of the Marriott brand. I did not have an issue with exterior light or sound as others have mentioned, so it may just depend on if your room is facing the "wrong" direction. While I didn't have a view beyond the adjacent section of the hotel and small courtyard in between, it was peaceful and quiet. Pool looked nice and fairly relaxing considering this is more of a city environment, but I did not use so can't speak much to it. Lobby is nice, typical Courtyard pay-for-food offerings, and lounge-like lobby seating. I would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r550754921-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>550754921</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Marriott Courtyard's Disasterous Flirtation With Urban "Hip"</t>
+  </si>
+  <si>
+    <t>Usually Courtyards are a safe bet; you know what you are getting - standard comfort and reliability.  This Courtyard flirts with urban hip and makes a mess of it.  We had a corner executive suite on the 5th floor. The room is large, so is the bathroom. Apparently, all the executive suites are on this corner location on each floor.  The room is directly opposite the Santa Monica Metro with constant noise from the trains. Marriott was too cheap to consider their guests' comfort or they would have installed triple-pane balcony doors to keep the noise out; especially that ongoing beeping sound and announcements, which will bother you if you are a light sleeper. The balcony is large and could be welcoming if you don't mind all that noise. There is a partial ocean view. 
+The electronically controlled blinds over the balcony door have about a 6" gap from the door, letting in the harsh lights from the metro and bus station, that shine brightly all night long.  I had to sleep on one side all night to keep the light out of my eyes. And when I opened my eyes, there was a huge Warhol-type painting of Debbie Harry staring at me.  Wouldn't a mellow surf or beach theme have been more appropriate for this beach location?
+The furniture is a mishmash of IKEA meets the local kindergarten. The coffee table is a glass top on a small red...Usually Courtyards are a safe bet; you know what you are getting - standard comfort and reliability.  This Courtyard flirts with urban hip and makes a mess of it.  We had a corner executive suite on the 5th floor. The room is large, so is the bathroom. Apparently, all the executive suites are on this corner location on each floor.  The room is directly opposite the Santa Monica Metro with constant noise from the trains. Marriott was too cheap to consider their guests' comfort or they would have installed triple-pane balcony doors to keep the noise out; especially that ongoing beeping sound and announcements, which will bother you if you are a light sleeper. The balcony is large and could be welcoming if you don't mind all that noise. There is a partial ocean view. The electronically controlled blinds over the balcony door have about a 6" gap from the door, letting in the harsh lights from the metro and bus station, that shine brightly all night long.  I had to sleep on one side all night to keep the light out of my eyes. And when I opened my eyes, there was a huge Warhol-type painting of Debbie Harry staring at me.  Wouldn't a mellow surf or beach theme have been more appropriate for this beach location?The furniture is a mishmash of IKEA meets the local kindergarten. The coffee table is a glass top on a small red geodesic dome, there is some kind of ugly yellow chair and a large L-shaped sofa with a low back (had to stack up cushions to rest my head) and a huge lampshade hanging over the sofa, so you have to duck if you want to change spots on the sofa.Air conditioning: If you turn the A/C off automatic and put it on fan, the fan only goes full blast so you can't regulate the temperature effectively, but worse than that, the vent is directly over the bed, so you either go crazy with the noise from the a/c vent all night, or you suffocate when the auto cycle turns off, because you dare not open the balcony door to let in any fresh air due to the noise and bright lights.  We were offered another room, but it was small and the window was facing a wall looking directly into other rooms. It was too claustrophobic for me. I was also offered ear plugs, something I'm told other guests have requested who have occupied that room.The bed is comfortable and so were the pillows.  Water in the bathroom sink faucet comes out at a trickle. Fortunately the shower has some pressure to it. Turn on the faucet in the kitchen and the water come gushing out. There are toiletries in the bathroom. Unfortunately the body lotion was half used by a previous guest, and not replaced by housekeeping.  There is a Keurig coffee maker in the kitchen but the cups they gave us were too tall to fit in the machine.  Valet parking is $42 plus tax. The staff are friendly and well aware of the issues I've mentioned. What Marriott thought they were achieving with this experiment I don't know, but we will have to do some serious evaluation the next time we think a Courtyard might be a safe, reliable option for a quick business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Usually Courtyards are a safe bet; you know what you are getting - standard comfort and reliability.  This Courtyard flirts with urban hip and makes a mess of it.  We had a corner executive suite on the 5th floor. The room is large, so is the bathroom. Apparently, all the executive suites are on this corner location on each floor.  The room is directly opposite the Santa Monica Metro with constant noise from the trains. Marriott was too cheap to consider their guests' comfort or they would have installed triple-pane balcony doors to keep the noise out; especially that ongoing beeping sound and announcements, which will bother you if you are a light sleeper. The balcony is large and could be welcoming if you don't mind all that noise. There is a partial ocean view. 
+The electronically controlled blinds over the balcony door have about a 6" gap from the door, letting in the harsh lights from the metro and bus station, that shine brightly all night long.  I had to sleep on one side all night to keep the light out of my eyes. And when I opened my eyes, there was a huge Warhol-type painting of Debbie Harry staring at me.  Wouldn't a mellow surf or beach theme have been more appropriate for this beach location?
+The furniture is a mishmash of IKEA meets the local kindergarten. The coffee table is a glass top on a small red...Usually Courtyards are a safe bet; you know what you are getting - standard comfort and reliability.  This Courtyard flirts with urban hip and makes a mess of it.  We had a corner executive suite on the 5th floor. The room is large, so is the bathroom. Apparently, all the executive suites are on this corner location on each floor.  The room is directly opposite the Santa Monica Metro with constant noise from the trains. Marriott was too cheap to consider their guests' comfort or they would have installed triple-pane balcony doors to keep the noise out; especially that ongoing beeping sound and announcements, which will bother you if you are a light sleeper. The balcony is large and could be welcoming if you don't mind all that noise. There is a partial ocean view. The electronically controlled blinds over the balcony door have about a 6" gap from the door, letting in the harsh lights from the metro and bus station, that shine brightly all night long.  I had to sleep on one side all night to keep the light out of my eyes. And when I opened my eyes, there was a huge Warhol-type painting of Debbie Harry staring at me.  Wouldn't a mellow surf or beach theme have been more appropriate for this beach location?The furniture is a mishmash of IKEA meets the local kindergarten. The coffee table is a glass top on a small red geodesic dome, there is some kind of ugly yellow chair and a large L-shaped sofa with a low back (had to stack up cushions to rest my head) and a huge lampshade hanging over the sofa, so you have to duck if you want to change spots on the sofa.Air conditioning: If you turn the A/C off automatic and put it on fan, the fan only goes full blast so you can't regulate the temperature effectively, but worse than that, the vent is directly over the bed, so you either go crazy with the noise from the a/c vent all night, or you suffocate when the auto cycle turns off, because you dare not open the balcony door to let in any fresh air due to the noise and bright lights.  We were offered another room, but it was small and the window was facing a wall looking directly into other rooms. It was too claustrophobic for me. I was also offered ear plugs, something I'm told other guests have requested who have occupied that room.The bed is comfortable and so were the pillows.  Water in the bathroom sink faucet comes out at a trickle. Fortunately the shower has some pressure to it. Turn on the faucet in the kitchen and the water come gushing out. There are toiletries in the bathroom. Unfortunately the body lotion was half used by a previous guest, and not replaced by housekeeping.  There is a Keurig coffee maker in the kitchen but the cups they gave us were too tall to fit in the machine.  Valet parking is $42 plus tax. The staff are friendly and well aware of the issues I've mentioned. What Marriott thought they were achieving with this experiment I don't know, but we will have to do some serious evaluation the next time we think a Courtyard might be a safe, reliable option for a quick business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r550380670-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>550380670</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Excellent location a few blocks from Santa Monica pier. Very friendly and helpful staff, particularly Diego. This hotel is new with large comfortable, modern and clean rooms. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Excellent location a few blocks from Santa Monica pier. Very friendly and helpful staff, particularly Diego. This hotel is new with large comfortable, modern and clean rooms. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r539910163-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>539910163</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Great location in Santa Monica</t>
+  </si>
+  <si>
+    <t>This Hotel has a great location close to 4th and 3rd street, the Pier and the Metro. Comfortable rooms and frendly staff. A small but OK restaurant/bar to have breakfast or a beer or a glass of wine. alos convienient to have laindray facilities. You can hear the Metro but it did'nt bother me much.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>This Hotel has a great location close to 4th and 3rd street, the Pier and the Metro. Comfortable rooms and frendly staff. A small but OK restaurant/bar to have breakfast or a beer or a glass of wine. alos convienient to have laindray facilities. You can hear the Metro but it did'nt bother me much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r539658137-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>539658137</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>comfortable, new and centrally located but overpriced</t>
+  </si>
+  <si>
+    <t>A new hotel, easy to access, friendly, nice lobby with a cafe serving starbucks but little choice of food, also no croissants in the morning!Rooms are clean, large and extremely well planned and comfortable .My only grouse-I had bought some expensive gourmet cheese and cold cuts (sealed and unopened)  and stored it in the room fridge but forgot it on checkout, i returned a couple of hours later and the housekeeping had already disposed it ! I think this policy should be revisited by the hotel chain, and they should store it for a day before disposing off guest items. Its not that it would have spoilt as they were as yet unopened.   Also beware that all the good Santa Monica Hotels are very steep and overpriced,  USD 300+ is a bit steep for a courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>A new hotel, easy to access, friendly, nice lobby with a cafe serving starbucks but little choice of food, also no croissants in the morning!Rooms are clean, large and extremely well planned and comfortable .My only grouse-I had bought some expensive gourmet cheese and cold cuts (sealed and unopened)  and stored it in the room fridge but forgot it on checkout, i returned a couple of hours later and the housekeeping had already disposed it ! I think this policy should be revisited by the hotel chain, and they should store it for a day before disposing off guest items. Its not that it would have spoilt as they were as yet unopened.   Also beware that all the good Santa Monica Hotels are very steep and overpriced,  USD 300+ is a bit steep for a courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r533912166-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>533912166</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Great location at reasonable rate!</t>
+  </si>
+  <si>
+    <t>Spent a weekend at Courtyard in Santa Monica. I have stayed at some of the more popular beachfront hotels in Santa Monica in the past, and for me the Courtyard was as good or better than the much more expensive places in Santa Monica. The hotel is new, perfectly located across from the Metro station, 2 blocks from 3rd st. Promenade and 4 blocks to Santa Monica Pier. Everything was in close walking distance. The rooms are spacious, and the front desk staff was especially helpful and polite. Super price for one of the most expensive places locations in CA. Valet parking is stiff at $41/day, but if you don't mind walking your bags past homeless bums there is public parking available 2 blocks away at $17.50/day. I went for the hotel valet and felt that it was worth the piece of mind. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Spent a weekend at Courtyard in Santa Monica. I have stayed at some of the more popular beachfront hotels in Santa Monica in the past, and for me the Courtyard was as good or better than the much more expensive places in Santa Monica. The hotel is new, perfectly located across from the Metro station, 2 blocks from 3rd st. Promenade and 4 blocks to Santa Monica Pier. Everything was in close walking distance. The rooms are spacious, and the front desk staff was especially helpful and polite. Super price for one of the most expensive places locations in CA. Valet parking is stiff at $41/day, but if you don't mind walking your bags past homeless bums there is public parking available 2 blocks away at $17.50/day. I went for the hotel valet and felt that it was worth the piece of mind. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r532459633-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>532459633</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>great customer service</t>
+  </si>
+  <si>
+    <t>This hotel is a nice brand new property in a great location. The 5 star review is mainly for the customer service. Everyone was so nice and accommodating. I wish I could remember everyones name that helped us to give them a shoutout. Sergio the manager was quick to rectify issues that we had. This was out first trip with a newborn and with all the challenges we ran into, the staff were quick to help. The even froze our freezer packs for milk in the employee freezer every evening. Thank you for making the trip easier on this new parent!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is a nice brand new property in a great location. The 5 star review is mainly for the customer service. Everyone was so nice and accommodating. I wish I could remember everyones name that helped us to give them a shoutout. Sergio the manager was quick to rectify issues that we had. This was out first trip with a newborn and with all the challenges we ran into, the staff were quick to help. The even froze our freezer packs for milk in the employee freezer every evening. Thank you for making the trip easier on this new parent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r532358283-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>532358283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weigh pros and cons carefully </t>
+  </si>
+  <si>
+    <t>First of all, the hotel was lovely and I find no fault with the hotel.  It was the level of Marriott that I expected, with clean rooms and all the necessities met. What I want to make sure the traveler knows is that the area, while 5 short blocks near the beach, is inundated with homeless people that appear drugged out.  It was scary to encounter so many, even with my father and 6’2” son to protect me. So I just want to give you a heads up on this location.  Second, if you have a car, continue down Colorado street, and turn right on Second St. for a parking garage that charges a flat $17.50 per day.  If you park at the hotel, with tax and valet ‘fees’, you will pay $52.20 per day!!!  Keep this in mind. Just thought you’d want know what to expect if you stay at this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all, the hotel was lovely and I find no fault with the hotel.  It was the level of Marriott that I expected, with clean rooms and all the necessities met. What I want to make sure the traveler knows is that the area, while 5 short blocks near the beach, is inundated with homeless people that appear drugged out.  It was scary to encounter so many, even with my father and 6’2” son to protect me. So I just want to give you a heads up on this location.  Second, if you have a car, continue down Colorado street, and turn right on Second St. for a parking garage that charges a flat $17.50 per day.  If you park at the hotel, with tax and valet ‘fees’, you will pay $52.20 per day!!!  Keep this in mind. Just thought you’d want know what to expect if you stay at this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r530355911-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>530355911</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t>Friendly helpful staff who were very helpful in orientating us to the area. Rooms were good with plenty of usb points. The railway station is across the road and you can take a bus to the airport just around the corner. Everything is handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Friendly helpful staff who were very helpful in orientating us to the area. Rooms were good with plenty of usb points. The railway station is across the road and you can take a bus to the airport just around the corner. Everything is handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r526869666-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>526869666</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anniversary </t>
+  </si>
+  <si>
+    <t>If you are looking for a hotel this is the place you want to stay at. Everyone there is Amazing! My daughter starting crying at 3:45am and Courtney at the front desk brought some milk we needed to our room, unbelievable!! She is so Nice! Also Jerry and Daniela at the little food place and front desk during the day they are awesome also. If there was a way to give 20 STARS I would. I am going to tell EVERYONE HOW AWESOME AND AMAZING THIS PLACE IS. I read reviews for two full day and picked this place. I definitely could not be happier. You folks DEFINITELY know how to treat your guest that's a FACT!! Thank You so much for making our anniversary and stay so Amazing. WE WILL DEFINITELY BE BACK SOON AND WE WILL BE SENDING PEOPLE. Oh valet people can't leave them out more than Amazing also very Helpful!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>If you are looking for a hotel this is the place you want to stay at. Everyone there is Amazing! My daughter starting crying at 3:45am and Courtney at the front desk brought some milk we needed to our room, unbelievable!! She is so Nice! Also Jerry and Daniela at the little food place and front desk during the day they are awesome also. If there was a way to give 20 STARS I would. I am going to tell EVERYONE HOW AWESOME AND AMAZING THIS PLACE IS. I read reviews for two full day and picked this place. I definitely could not be happier. You folks DEFINITELY know how to treat your guest that's a FACT!! Thank You so much for making our anniversary and stay so Amazing. WE WILL DEFINITELY BE BACK SOON AND WE WILL BE SENDING PEOPLE. Oh valet people can't leave them out more than Amazing also very Helpful!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r526153009-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>526153009</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Mixed Review - Great Location</t>
+  </si>
+  <si>
+    <t>Stayed at this new hotel for two nights while in town for business.  Truly mixed feelings, here is the good and not so good:Good:  New property so design is modern and you get that "new" smell.  Location is great close to mall, restaurants and 5-minutes to beach and pier.  Front desk staff were friendly and efficient as was the valet service.  Also liked the pool area, second level balcony - though did not use it.Negatives:  From my perspective, the biggest challenge was noise.  I could hear the person next to me talking on their phone after midnight word-for-word EVEN after turning my tv up to 6 to drown him out.  For some reason, the walls in this place are paper thin...made for a very frustrating and sleepless visit.  This alone will keep me from returning.  Otherwise, the lack of proper breakfast facility (only a Starbucks in the lobby), mandatory valet at $42/day were also negatives.  Unfortunate, there is good potential here, but noise dampening and better breakfast options would make it so much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this new hotel for two nights while in town for business.  Truly mixed feelings, here is the good and not so good:Good:  New property so design is modern and you get that "new" smell.  Location is great close to mall, restaurants and 5-minutes to beach and pier.  Front desk staff were friendly and efficient as was the valet service.  Also liked the pool area, second level balcony - though did not use it.Negatives:  From my perspective, the biggest challenge was noise.  I could hear the person next to me talking on their phone after midnight word-for-word EVEN after turning my tv up to 6 to drown him out.  For some reason, the walls in this place are paper thin...made for a very frustrating and sleepless visit.  This alone will keep me from returning.  Otherwise, the lack of proper breakfast facility (only a Starbucks in the lobby), mandatory valet at $42/day were also negatives.  Unfortunate, there is good potential here, but noise dampening and better breakfast options would make it so much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r520942290-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>520942290</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Best Value for Santa Monica</t>
+  </si>
+  <si>
+    <t>This stylish, contemporary hotel is just perfect for a short stay in Santa Monica. Four blocks from the beach, and one block from the fancy new mall on 3rd street. Sparse and lacking a lounge or restaurant - but who needs that when you are in the heart of Santa Monica?We heard that it had opened in March 2017 - and it looked and felt brand new and clean. No hesitation - great place to stay for overall value and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>This stylish, contemporary hotel is just perfect for a short stay in Santa Monica. Four blocks from the beach, and one block from the fancy new mall on 3rd street. Sparse and lacking a lounge or restaurant - but who needs that when you are in the heart of Santa Monica?We heard that it had opened in March 2017 - and it looked and felt brand new and clean. No hesitation - great place to stay for overall value and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r516886243-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>516886243</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Perfect Location</t>
+  </si>
+  <si>
+    <t>So close to what we wanted - just a few minutes to 3rd street promenade, Santa Monica Pier, restaurants and beaches.  Two queen beds were perfect for me and my 3 kids.  Liked the Keurig coffee machine in the room.  Parking was a bit steep, with the valet parking, but comparable to other hotels in the area.  A great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>So close to what we wanted - just a few minutes to 3rd street promenade, Santa Monica Pier, restaurants and beaches.  Two queen beds were perfect for me and my 3 kids.  Liked the Keurig coffee machine in the room.  Parking was a bit steep, with the valet parking, but comparable to other hotels in the area.  A great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r513084582-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>513084582</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic </t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights. I can't recommend this hotel enough. Our king room with balcony was superb. Spacious, airy and well appointed. The service from the front desk was super (thank you Daniela!) The location is brilliant, just a 5/10min walk to the pier. Excellent bars, restaurants and shops just minutes away. The air con is brilliant keeping the room cool and airy. The onsite cafe/coffee shop is brilliant.The area felt safe. Thank you for a great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for 4 nights. I can't recommend this hotel enough. Our king room with balcony was superb. Spacious, airy and well appointed. The service from the front desk was super (thank you Daniela!) The location is brilliant, just a 5/10min walk to the pier. Excellent bars, restaurants and shops just minutes away. The air con is brilliant keeping the room cool and airy. The onsite cafe/coffee shop is brilliant.The area felt safe. Thank you for a great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r511586679-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>511586679</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Nice location and great staff</t>
+  </si>
+  <si>
+    <t>We stayed here in early August 2017.  It is about a 3 or 4 block walk to the pier.  We did not mind the short walk.  The parking is a little steep 42 dollars a day and there is cheaper parking nearby but they don't let you come and go.  We had one issue one night where we needed help from housekeeping at 3:00am and they got to our room so fast it was amazing.  I was very pleased with the staff in the hotel.  They did not have any bell staff to help you with your bags upon arrival but that was not a big deal to us.  We found it to be a very quiet hotel.  There is a building next to the hotel that is being renovated but we did not hear any noise from it.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here in early August 2017.  It is about a 3 or 4 block walk to the pier.  We did not mind the short walk.  The parking is a little steep 42 dollars a day and there is cheaper parking nearby but they don't let you come and go.  We had one issue one night where we needed help from housekeeping at 3:00am and they got to our room so fast it was amazing.  I was very pleased with the staff in the hotel.  They did not have any bell staff to help you with your bags upon arrival but that was not a big deal to us.  We found it to be a very quiet hotel.  There is a building next to the hotel that is being renovated but we did not hear any noise from it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r510120783-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>510120783</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Perfect location, nice room, nice modern feel</t>
+  </si>
+  <si>
+    <t>Location is great. Room is  clean, new and modern. Size is great, as well. However, parking is quite steep. If you can uber or lyft or train I highly recommend. room is large enough to have extra person. bathroom is large, too. all in all a good hotel. prices are steep for courtyard but you get what you get in Santa Monica.Nice pool  and gym as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Location is great. Room is  clean, new and modern. Size is great, as well. However, parking is quite steep. If you can uber or lyft or train I highly recommend. room is large enough to have extra person. bathroom is large, too. all in all a good hotel. prices are steep for courtyard but you get what you get in Santa Monica.Nice pool  and gym as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r509861621-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>509861621</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Close to everything Santa Monica</t>
+  </si>
+  <si>
+    <t>Took the train from Downtown LA (stops right in front of the hotel). Train costs a few dollars, but you have to buy a TAP card. Still the convenience is off the chart. The Hotel is clean, and has a Starbucks (which seemed closed more often than open). The rooms are comfortable, but you really want to walk the two blocks or so to the Promenade. It is a franchise, so if you are a Marriott Member be prepared (and understanding) as they don't treat you like the real Marriott hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Took the train from Downtown LA (stops right in front of the hotel). Train costs a few dollars, but you have to buy a TAP card. Still the convenience is off the chart. The Hotel is clean, and has a Starbucks (which seemed closed more often than open). The rooms are comfortable, but you really want to walk the two blocks or so to the Promenade. It is a franchise, so if you are a Marriott Member be prepared (and understanding) as they don't treat you like the real Marriott hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r508130028-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>508130028</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Nice newer hotel</t>
+  </si>
+  <si>
+    <t>Hotel is new. The location is perfect. It is a few blocks away from the pier and the 3rd street promenade.  Staff were super friendly &amp; room was spacious. Close to everything. Santa Monica has a lot of homeless, i mean alot, but this hotel is far enough away from the mess yet still 3-4 blocks from everything. Clean inside and out.  Pool deck is fun, shaded in the afternoon and has large seating areas. Get out of your room and have a seat outside, day or night. Smallish pool, but fine for a dip and good for kids.Not really a location for ocean or beach views, in fact the view is of streets and the metro, yet surprisingly quiet. Mini mart and cafe are suitable for quick snacks and a Vonns is 3 blocks away. Its a solid choice for any trip to Santa Monica. Try Bruno's for pizza lunch or dinner, 1.5 blocks left of the pier.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Hotel is new. The location is perfect. It is a few blocks away from the pier and the 3rd street promenade.  Staff were super friendly &amp; room was spacious. Close to everything. Santa Monica has a lot of homeless, i mean alot, but this hotel is far enough away from the mess yet still 3-4 blocks from everything. Clean inside and out.  Pool deck is fun, shaded in the afternoon and has large seating areas. Get out of your room and have a seat outside, day or night. Smallish pool, but fine for a dip and good for kids.Not really a location for ocean or beach views, in fact the view is of streets and the metro, yet surprisingly quiet. Mini mart and cafe are suitable for quick snacks and a Vonns is 3 blocks away. Its a solid choice for any trip to Santa Monica. Try Bruno's for pizza lunch or dinner, 1.5 blocks left of the pier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r504028765-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>504028765</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>Hotel is brand new.  The location is perfect.  It is a few blocks away from the pier and the 3rd street promenade.  Just far enough away from the crowds but in perfect walking distance to everything.  Subway is literally across the street.  Rooms were very nice and large.  We didn't notice any issues with water pressure ( as some reviews state).  Front desk employees were extremely nice and accommodating.  Service was excellent.  We thought the pool area was great.  It is on the second floor overlooking the street.  You can people watch all day and we found ourselves just hanging out there because there was plenty of room and it had a very comfortable feel.  Exercise room has all brand new equipment and was roomy.  Rooms had ceiling to floor windows.   Starbucks in the hotel - we were able to order breakfast there and charge to room.  Yes, parking is 42.00 a day, however that enables you to freely valet park and get your car whenever you want.  Service was excellent there too.  Car came out within seconds after handing valet attendant ticket.  Can't find anything to complain about for this hotel.  Would be my first choice for another stay in Santa Monica and would recommend to anyone looking to stay in the area.  Stayed there with a family of 4.  Kids loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is brand new.  The location is perfect.  It is a few blocks away from the pier and the 3rd street promenade.  Just far enough away from the crowds but in perfect walking distance to everything.  Subway is literally across the street.  Rooms were very nice and large.  We didn't notice any issues with water pressure ( as some reviews state).  Front desk employees were extremely nice and accommodating.  Service was excellent.  We thought the pool area was great.  It is on the second floor overlooking the street.  You can people watch all day and we found ourselves just hanging out there because there was plenty of room and it had a very comfortable feel.  Exercise room has all brand new equipment and was roomy.  Rooms had ceiling to floor windows.   Starbucks in the hotel - we were able to order breakfast there and charge to room.  Yes, parking is 42.00 a day, however that enables you to freely valet park and get your car whenever you want.  Service was excellent there too.  Car came out within seconds after handing valet attendant ticket.  Can't find anything to complain about for this hotel.  Would be my first choice for another stay in Santa Monica and would recommend to anyone looking to stay in the area.  Stayed there with a family of 4.  Kids loved it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r503860478-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>503860478</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Nice new hotel &amp; only a short walk to the Pier &amp; close to the shopping mall &amp; restaurants. Staff were friendly &amp; room was lovely &amp; comfortable &amp; very clean. The only downside for us was the cost of parking &amp; no luggage porter or luggage storage room. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice new hotel &amp; only a short walk to the Pier &amp; close to the shopping mall &amp; restaurants. Staff were friendly &amp; room was lovely &amp; comfortable &amp; very clean. The only downside for us was the cost of parking &amp; no luggage porter or luggage storage room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r502665687-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>502665687</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Location; beach, shopping, and restaurants</t>
+  </si>
+  <si>
+    <t>New hotel situated perfectly next to Santa Monica place shopping mall and 3rd Street Promenade. The area is full of stores, restaurants and cafes. - Ample room with floor to ceiling window.- A tiny "grocery store" in the lobby where you can get your needs anytime and add them on your room account.- Like in most Marriott hotels, Internet TV available for youtube, Netflix, etc.- 46$ valet parking fee (no self-parking). I think there are cheaper choices around.- Small pool with limited chairs. However, the Jacuzzi was good and sufficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>New hotel situated perfectly next to Santa Monica place shopping mall and 3rd Street Promenade. The area is full of stores, restaurants and cafes. - Ample room with floor to ceiling window.- A tiny "grocery store" in the lobby where you can get your needs anytime and add them on your room account.- Like in most Marriott hotels, Internet TV available for youtube, Netflix, etc.- 46$ valet parking fee (no self-parking). I think there are cheaper choices around.- Small pool with limited chairs. However, the Jacuzzi was good and sufficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r500847977-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>500847977</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Stay in clean</t>
+  </si>
+  <si>
+    <t>I stayed only 1 day during the beginning of May, 2017 and I felt it was very clean because it was a new one. And, the  most of employees were very friendly to explain and support me. The ballet parking system was good and they worked systematically. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed only 1 day during the beginning of May, 2017 and I felt it was very clean because it was a new one. And, the  most of employees were very friendly to explain and support me. The ballet parking system was good and they worked systematically. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r500506312-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>500506312</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent place to stay in Santa Monica!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I needed a place to stay in Santa Monica while on a business trip to visit a client in Brentwood.  We were so glad we decided to stay at this Brand New hotel.  They have Valet Parking only ~ a great amenity considering that parking is a big challenge &amp; expensive in Santa Monica.We stayed at their corner suite room with a view of the ocean.  Large suite with large bathroom.   This hotel is in a perfect location.  Next to a nice high-end mall with Louis Vuitton, Bloomingdales, Tory Burch, Nordstrom, etc... Near 3rd Street Promenade. Lots of great restaurants within short walking distance.  Same street as the Santa Monica Pier.  The pier is about 3 blocks from the hotel.  The metro that takes you to Downtown LA is across the street.I want to commend the Front Desk Agent ~ Diego Castro.  Diego is very personable, very friendly and has impeccable customer service skills.  Diego made sure we had a great &amp; comfortable stay at their property.I highly recommend Courtyard Santa Monica!  Our other choice was Hilton on the other side of the freeway.  But, we are so glad we decided to stay at Courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>My husband &amp; I needed a place to stay in Santa Monica while on a business trip to visit a client in Brentwood.  We were so glad we decided to stay at this Brand New hotel.  They have Valet Parking only ~ a great amenity considering that parking is a big challenge &amp; expensive in Santa Monica.We stayed at their corner suite room with a view of the ocean.  Large suite with large bathroom.   This hotel is in a perfect location.  Next to a nice high-end mall with Louis Vuitton, Bloomingdales, Tory Burch, Nordstrom, etc... Near 3rd Street Promenade. Lots of great restaurants within short walking distance.  Same street as the Santa Monica Pier.  The pier is about 3 blocks from the hotel.  The metro that takes you to Downtown LA is across the street.I want to commend the Front Desk Agent ~ Diego Castro.  Diego is very personable, very friendly and has impeccable customer service skills.  Diego made sure we had a great &amp; comfortable stay at their property.I highly recommend Courtyard Santa Monica!  Our other choice was Hilton on the other side of the freeway.  But, we are so glad we decided to stay at Courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r500300302-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>500300302</t>
+  </si>
+  <si>
+    <t>Location, location, location!</t>
+  </si>
+  <si>
+    <t>The Courtyard is only 4 blocks to Santa Monica Pier/Beach. Because of this you save hundreds of dollars a night. I love an ocean view and was somewhat skeptical when I booked it but it is a really nice property. It appears to be pretty new with a fun, updated, beach themed decor.  You are in a very short walking distance of a mall, tons of restaurants, the beach and the pier. Although I did encounter homeless when I went out at 7AM for my cardio on the beach, I did not at any time feel unsafe. The staff was friendly and welcoming, the sleeping room was a medium size but the bathroom was huge! Kudos for having a big vanity!!! I am a frequent traveler and mostly stay at Marriott properties. Being a female (and a girly girl) I have a lot of "stuff" I bring with me and most often the bathrooms aren't large and leave you without anywhere to put all your stuff. I loved that it had a walk in shower and no tub as well. I would definitely stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Courtyard is only 4 blocks to Santa Monica Pier/Beach. Because of this you save hundreds of dollars a night. I love an ocean view and was somewhat skeptical when I booked it but it is a really nice property. It appears to be pretty new with a fun, updated, beach themed decor.  You are in a very short walking distance of a mall, tons of restaurants, the beach and the pier. Although I did encounter homeless when I went out at 7AM for my cardio on the beach, I did not at any time feel unsafe. The staff was friendly and welcoming, the sleeping room was a medium size but the bathroom was huge! Kudos for having a big vanity!!! I am a frequent traveler and mostly stay at Marriott properties. Being a female (and a girly girl) I have a lot of "stuff" I bring with me and most often the bathrooms aren't large and leave you without anywhere to put all your stuff. I loved that it had a walk in shower and no tub as well. I would definitely stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r498013448-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>498013448</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Happy with our choice</t>
+  </si>
+  <si>
+    <t>We stayed here for a week at the end of June. We were happy with our choice in Santa Monica as the hotel was new, fresh and very clean. The bed was very comfy and quiet so great for a good sleep. Clean towels and turndown everyday.The gym was free and open 24 hours with dumbells, 2 benches, running machines, bikes and ellipticals. Fresh towels and cold water on tap. The cafe was open til 10am and served a good healthy start bun with eggs and turkey but for $8.50. A bottle of water was $3.49 which is expensive.The wifi was free and fast. Helpful staff. Good location four blocks from the beach and one block from the shops. The metro station was right opposite.Had a slight issue/overcharge with charges and taxes via booking.com. The total pricing should be made clearer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for a week at the end of June. We were happy with our choice in Santa Monica as the hotel was new, fresh and very clean. The bed was very comfy and quiet so great for a good sleep. Clean towels and turndown everyday.The gym was free and open 24 hours with dumbells, 2 benches, running machines, bikes and ellipticals. Fresh towels and cold water on tap. The cafe was open til 10am and served a good healthy start bun with eggs and turkey but for $8.50. A bottle of water was $3.49 which is expensive.The wifi was free and fast. Helpful staff. Good location four blocks from the beach and one block from the shops. The metro station was right opposite.Had a slight issue/overcharge with charges and taxes via booking.com. The total pricing should be made clearer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r494875646-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>494875646</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>College Visits with my daughter</t>
+  </si>
+  <si>
+    <t>Clean new hotel. Comfy bed convenient location. We rented a car and drove to USC and New York Film academy with no problems. The only option for parking was valid and I found that to be expensive since we stayed 5 nights. Other wise it was a nice mid priced hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Clean new hotel. Comfy bed convenient location. We rented a car and drove to USC and New York Film academy with no problems. The only option for parking was valid and I found that to be expensive since we stayed 5 nights. Other wise it was a nice mid priced hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r494702489-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>494702489</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Nice brand new hotel</t>
+  </si>
+  <si>
+    <t>Very nice brand new hotel. Rooms are large and nicely decorated. All of the outlets have USB ports which made charging all my devices easy. Location is perfect only a few blocks from the beach and directly across the street from the light rail station.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice brand new hotel. Rooms are large and nicely decorated. All of the outlets have USB ports which made charging all my devices easy. Location is perfect only a few blocks from the beach and directly across the street from the light rail station.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r492885807-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>492885807</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Great location great staff</t>
+  </si>
+  <si>
+    <t>Really nice staff and generous rooms. Basic but value breakfast options. We really like a basic and low cost start to the day. Reasonable coffee and oatmeal or a bagel. Great location. Only downside is the cost of parking ...... More than a tank of gas MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Really nice staff and generous rooms. Basic but value breakfast options. We really like a basic and low cost start to the day. Reasonable coffee and oatmeal or a bagel. Great location. Only downside is the cost of parking ...... More than a tank of gas More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r492633519-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>492633519</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nice hotel but . . . </t>
+  </si>
+  <si>
+    <t>I hate to write reviews like this but I feel that Marriott has done its customers a disservice. The hotel is new and thus clean. The room was nicely appointed, lots of space and plugins, etc. The service was good also. What's my beef? First the hotel has a noise issue. Too bad because I like the room, but I can hear the upstairs guests every footstep. Also, the Marriott site lists the hotel as having a "restaurant" on site.  This is just misleading advertising. There is a small cafe with a very limited menu and limited hours. Not much made to order except the Starbucks coffee. This is not a Starbucks either. So you have to walk two blocks to McDonalds or fourth blocks to a Denny's. There is plenty of lunch/dinner choices within a 15 min walk, but breakfast is another matter. There is a local place several blocks away but this hotel does not seem to cater to business clientele, with the food situation, IMO. As expensive as it is to stay here, this is really a disappointment.It's not a terrible hotel, just average. Too bad . . . Marriotts are generally above average.MoreShow less</t>
+  </si>
+  <si>
+    <t>I hate to write reviews like this but I feel that Marriott has done its customers a disservice. The hotel is new and thus clean. The room was nicely appointed, lots of space and plugins, etc. The service was good also. What's my beef? First the hotel has a noise issue. Too bad because I like the room, but I can hear the upstairs guests every footstep. Also, the Marriott site lists the hotel as having a "restaurant" on site.  This is just misleading advertising. There is a small cafe with a very limited menu and limited hours. Not much made to order except the Starbucks coffee. This is not a Starbucks either. So you have to walk two blocks to McDonalds or fourth blocks to a Denny's. There is plenty of lunch/dinner choices within a 15 min walk, but breakfast is another matter. There is a local place several blocks away but this hotel does not seem to cater to business clientele, with the food situation, IMO. As expensive as it is to stay here, this is really a disappointment.It's not a terrible hotel, just average. Too bad . . . Marriotts are generally above average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r490953568-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>490953568</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>New hotel 4 blocks from the ocean!</t>
+  </si>
+  <si>
+    <t>My GF and I stayed here for one night while visiting from Miami and this hotel is amazing! We were upgraded by Billy Dye and staff to an executive suite with a balcony and partial ocean view. Loved the hardwood floors; unlike carpet you know they are clean and with the sand and sea water it is a great idea; unlike other travelers I did not and never have any problems hearing guests in other rooms. Loved having the metro directly across the street, Only point of constructive criticism is the water pressure in the bathroom sink was weak. Maybe it was only my room but it was a great hotel 4 blocks from the ocean!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>My GF and I stayed here for one night while visiting from Miami and this hotel is amazing! We were upgraded by Billy Dye and staff to an executive suite with a balcony and partial ocean view. Loved the hardwood floors; unlike carpet you know they are clean and with the sand and sea water it is a great idea; unlike other travelers I did not and never have any problems hearing guests in other rooms. Loved having the metro directly across the street, Only point of constructive criticism is the water pressure in the bathroom sink was weak. Maybe it was only my room but it was a great hotel 4 blocks from the ocean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r484907089-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>484907089</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent Choice for Santa Monica</t>
+  </si>
+  <si>
+    <t>One of many excellent Courtyard hotels in the greater Los Angeles area. This location is a short walk to the Santa Monica Pier and 3rd Street Promenade shops. Also visited many restaurants on 2nd Avenue. The hotel itself had excellent service, including a really quick valet staff. Plan to be back at this location soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>One of many excellent Courtyard hotels in the greater Los Angeles area. This location is a short walk to the Santa Monica Pier and 3rd Street Promenade shops. Also visited many restaurants on 2nd Avenue. The hotel itself had excellent service, including a really quick valet staff. Plan to be back at this location soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r481880515-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>481880515</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Very Clean and Modern.  Comfortable Beds and Great Location</t>
+  </si>
+  <si>
+    <t>This courtyard is a couple blocks from the Santa Monica Pier.  It is easy to get to.  The rooms are very clean with huge television screens.  It has a pool on the second floor with cabanas.  Staff was very helpful.  I would recommend this hotel.  I few of the reviews seem to indicated that it was too modern but I would disagree.  There are so many places for breakfast, to eat, etc. right next door, across the block, etc.  It has a small cafe and a grab n go area.  I found the rooms very quiet with great pull curtains to completely black out the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>This courtyard is a couple blocks from the Santa Monica Pier.  It is easy to get to.  The rooms are very clean with huge television screens.  It has a pool on the second floor with cabanas.  Staff was very helpful.  I would recommend this hotel.  I few of the reviews seem to indicated that it was too modern but I would disagree.  There are so many places for breakfast, to eat, etc. right next door, across the block, etc.  It has a small cafe and a grab n go area.  I found the rooms very quiet with great pull curtains to completely black out the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r480404846-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>480404846</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Thanks for a great visit!</t>
+  </si>
+  <si>
+    <t>I highly recommended this hotel. The service was excellent. The rooms were clean. The deck top pool and hot tub were the perfect end to a day. The location - so convenient. A 10 minute walk to everywhere - the pier, 3rd street, great restaurants, the beach. We were given a late check out - which worked out perfectly. This hotel has given thought to so many details. I love the ear phones in the gym - yes, I forgot mine. The infused water cooler  in the lobby is a nice touch to the warm day. The fire pit on the deck and the cabanas for a rest and read. The room was quiet. With the metro across the street, I was certain there would be more noise. The bathroom spacious and spotless. There was comments about the expensive valet parking but with everything within walking distance, you don't need a car and if you do, lots of public lots in the area. Nothing but check marks for this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>I highly recommended this hotel. The service was excellent. The rooms were clean. The deck top pool and hot tub were the perfect end to a day. The location - so convenient. A 10 minute walk to everywhere - the pier, 3rd street, great restaurants, the beach. We were given a late check out - which worked out perfectly. This hotel has given thought to so many details. I love the ear phones in the gym - yes, I forgot mine. The infused water cooler  in the lobby is a nice touch to the warm day. The fire pit on the deck and the cabanas for a rest and read. The room was quiet. With the metro across the street, I was certain there would be more noise. The bathroom spacious and spotless. There was comments about the expensive valet parking but with everything within walking distance, you don't need a car and if you do, lots of public lots in the area. Nothing but check marks for this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r475527824-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>475527824</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Off to a good start.</t>
+  </si>
+  <si>
+    <t>Not your Grandma's Courtyard.  Modern with a hip accent throughout the hotel make it a great fit for this beach community.  Spacious rooms, with comfortable bed, brightly colored couch, hardwood floors and giant surfer mural in the bathroom complement the floor to ceiling windows (there are a variety of rooms based on the exterior look of the building, so this may not be your experience).  The small pool, spa, gym and fire pit on the second floor add an element of fun to the hotel. Visited when the hotel had been open for only two weeks, but getting it all worked out.  A nice place to stay a few blocks from the pier, a block from the shopping hub and across the street from the new Expo metro line.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Not your Grandma's Courtyard.  Modern with a hip accent throughout the hotel make it a great fit for this beach community.  Spacious rooms, with comfortable bed, brightly colored couch, hardwood floors and giant surfer mural in the bathroom complement the floor to ceiling windows (there are a variety of rooms based on the exterior look of the building, so this may not be your experience).  The small pool, spa, gym and fire pit on the second floor add an element of fun to the hotel. Visited when the hotel had been open for only two weeks, but getting it all worked out.  A nice place to stay a few blocks from the pier, a block from the shopping hub and across the street from the new Expo metro line.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r475055554-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>475055554</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>2 night stay last week</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights at this hotel before heading to N LA for a wedding.  Didn't rent a car so I wanted a hotel near Santa Monica pier and near shopping.  This hotel has a great location.  It's clean, has wood floors in the room, nice size shower and the staff was VERY nice and helpful.  The Metro train is right across the street, and although we didn't use it, it's a good option.  I would definitely recommend this hotel if you want some place modern, nice and clean. I also recommend taking advantage of the sitting area out by the pool, which has a very nice fire pit.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights at this hotel before heading to N LA for a wedding.  Didn't rent a car so I wanted a hotel near Santa Monica pier and near shopping.  This hotel has a great location.  It's clean, has wood floors in the room, nice size shower and the staff was VERY nice and helpful.  The Metro train is right across the street, and although we didn't use it, it's a good option.  I would definitely recommend this hotel if you want some place modern, nice and clean. I also recommend taking advantage of the sitting area out by the pool, which has a very nice fire pit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r475035329-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>475035329</t>
+  </si>
+  <si>
+    <t>A disappointing experience - Below the caliber of usual Courtyard hotels</t>
+  </si>
+  <si>
+    <t>In a nutshell:1. The mattress was very uncomfortable, spongy, and soft.2. There is absolutely ZERO soundproofing.  The cleaning person was cleaning the room immediately above us (at 6:30am) and we could hear EVERYTHING, including footsteps, the vacuum cleaner racket, you name it.3. I called the hotel and was told Marriott parking was $42 and that Public Parking was several blocks away.  We paid for the Mariott parking ($42 plus $4.20 tax), but later noticed that there was ample public parking only ONE block from the hotel (a few seconds away).  Cost only $17.50/day.What a let down.MoreShow less</t>
+  </si>
+  <si>
+    <t>In a nutshell:1. The mattress was very uncomfortable, spongy, and soft.2. There is absolutely ZERO soundproofing.  The cleaning person was cleaning the room immediately above us (at 6:30am) and we could hear EVERYTHING, including footsteps, the vacuum cleaner racket, you name it.3. I called the hotel and was told Marriott parking was $42 and that Public Parking was several blocks away.  We paid for the Mariott parking ($42 plus $4.20 tax), but later noticed that there was ample public parking only ONE block from the hotel (a few seconds away).  Cost only $17.50/day.What a let down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r474769745-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>474769745</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Would Not Select This Again Unless Staying on Business</t>
+  </si>
+  <si>
+    <t>We ultimately selected this hotel because it was new, but it proved to be extremely uncomfortable. The bed was not comfortable, the furniture was not comfortable and the tile floors made for very loud upstairs neighbors. When the cleaning staff started vacuuming that tile floor at 8:45 in the morning it made sleeping-in impossible. (It seems that they made absolutely no accommodation for the fact that additional soundproofing would be needed if they were using tile on the floor.) In fact, at one point I could hear someone in another room unzipping their luggage! I would not recommend this for a vacation.There are two major PROs: 1) The staff - the customer service was very good  2) they have smart TVs that let you watch Netflix!!!!HINT: There is no place to park in front of the hotel so drive into the side entrance parking garage off of 5th for check-in.MoreShow less</t>
+  </si>
+  <si>
+    <t>We ultimately selected this hotel because it was new, but it proved to be extremely uncomfortable. The bed was not comfortable, the furniture was not comfortable and the tile floors made for very loud upstairs neighbors. When the cleaning staff started vacuuming that tile floor at 8:45 in the morning it made sleeping-in impossible. (It seems that they made absolutely no accommodation for the fact that additional soundproofing would be needed if they were using tile on the floor.) In fact, at one point I could hear someone in another room unzipping their luggage! I would not recommend this for a vacation.There are two major PROs: 1) The staff - the customer service was very good  2) they have smart TVs that let you watch Netflix!!!!HINT: There is no place to park in front of the hotel so drive into the side entrance parking garage off of 5th for check-in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r473500253-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>473500253</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms and location, some issues</t>
+  </si>
+  <si>
+    <t>I stayed there opening weekend, the location is excellent close to shopping and the beach.  The rooms are very nice and modern.  Outside of that there were a couple small complaints.The TV was not functional, displaying a too-dark-to-see picture.  The front desk clerk didn't seem to care when I complained about it, which is unfortunate considering the high cost of my stay.Also the parking charge is insanely high for hotel guests, nearly 300% higher than the day rate for non-hotel guests.  I think they need to balance that out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>I stayed there opening weekend, the location is excellent close to shopping and the beach.  The rooms are very nice and modern.  Outside of that there were a couple small complaints.The TV was not functional, displaying a too-dark-to-see picture.  The front desk clerk didn't seem to care when I complained about it, which is unfortunate considering the high cost of my stay.Also the parking charge is insanely high for hotel guests, nearly 300% higher than the day rate for non-hotel guests.  I think they need to balance that out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r473030953-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>473030953</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>brand new property with modern  design, good location, huge nice bathrooms.</t>
+  </si>
+  <si>
+    <t>The staff was very nice, but since they were brand new, still working out a few kinks. The bathrooms were huge and nice and modern and really nice. The beds were fine, but the comforter didn't have a duvet, only sheets on top and bottom which didn't stay on. The new modern privacy lock locked without us in the room, and the maintenance staff had to figure out how to jerryrig it to get us in. Breakfast options are only fair. But the fact that the property is brand new, with hardworking and nice staff is a big plus. Stay here for business for sure - clean, convenient, modern, comfortable. Two blocks from the Pier. They have nice bikes you can rent to ride along the beach. For families - pool was small but nice, but eat breakfast elsewhere. Plenty of good places nearby for that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>The staff was very nice, but since they were brand new, still working out a few kinks. The bathrooms were huge and nice and modern and really nice. The beds were fine, but the comforter didn't have a duvet, only sheets on top and bottom which didn't stay on. The new modern privacy lock locked without us in the room, and the maintenance staff had to figure out how to jerryrig it to get us in. Breakfast options are only fair. But the fact that the property is brand new, with hardworking and nice staff is a big plus. Stay here for business for sure - clean, convenient, modern, comfortable. Two blocks from the Pier. They have nice bikes you can rent to ride along the beach. For families - pool was small but nice, but eat breakfast elsewhere. Plenty of good places nearby for that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r470736109-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>470736109</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>New hotel in central location</t>
+  </si>
+  <si>
+    <t>Hotel opened earlier this month and everything is new and clean.  Rooms are functional. Lobby has a lot of seating. Location is about three blocks from the pier and across from mass transit.  With any new hotel with new staff - a few kinks to work out and expect will happen.  For example, liked Kuerig coffee machine in room, however, only one caffeinated coffee pod for two guests. Surprisingly no benefit for elite Marriott status. I personally hate to valet car and at $42 per night steep price, although in line with other hotels in area. Valet service was efficient.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Hotel opened earlier this month and everything is new and clean.  Rooms are functional. Lobby has a lot of seating. Location is about three blocks from the pier and across from mass transit.  With any new hotel with new staff - a few kinks to work out and expect will happen.  For example, liked Kuerig coffee machine in room, however, only one caffeinated coffee pod for two guests. Surprisingly no benefit for elite Marriott status. I personally hate to valet car and at $42 per night steep price, although in line with other hotels in area. Valet service was efficient.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r468537319-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>468537319</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New property, decent location. </t>
+  </si>
+  <si>
+    <t>This was a last minute weekend getaway to Santa Monica for the family. We found out at check in that the Marriott Courtyard is brand new, opening only one night before our arrival. We were the first to use our particular room. We are Marriott rewards members and have stayed in many Courtyard properties. This one is (and should be) the nicest we have stayed in. If your are familiar with Courtyards, the amenities are still the same, but decor and details are upgraded (could also read as new). Lovely little seating area on the second floor by the pool. Pool is tiny. In the rooms they have plug ins and USB charging ports everywhere. A nice touch considering our family is usually charging up to 5 devices at night. TV system has Netflix, Hulu, Pandora so you can use your accounts to watch your own programming or music. No carpet in the room! A nice touch I think. 
+We were excited to enjoy some wine at the end of the day on the patio we passed on the way to our room on the 6th floor, but come to find out it was a private patio for an adjoining room. We could have went to 2nd floor patio but my daughter had reported that is was closed off when she was there to use the hot tub. She also reported the hot tub wasn't heated. However, in the morning...This was a last minute weekend getaway to Santa Monica for the family. We found out at check in that the Marriott Courtyard is brand new, opening only one night before our arrival. We were the first to use our particular room. We are Marriott rewards members and have stayed in many Courtyard properties. This one is (and should be) the nicest we have stayed in. If your are familiar with Courtyards, the amenities are still the same, but decor and details are upgraded (could also read as new). Lovely little seating area on the second floor by the pool. Pool is tiny. In the rooms they have plug ins and USB charging ports everywhere. A nice touch considering our family is usually charging up to 5 devices at night. TV system has Netflix, Hulu, Pandora so you can use your accounts to watch your own programming or music. No carpet in the room! A nice touch I think. We were excited to enjoy some wine at the end of the day on the patio we passed on the way to our room on the 6th floor, but come to find out it was a private patio for an adjoining room. We could have went to 2nd floor patio but my daughter had reported that is was closed off when she was there to use the hot tub. She also reported the hot tub wasn't heated. However, in the morning I found the 2nd floor patio open for use. In the evening we tried to call front desk to inquire about patio and to get more towels but it went to voice mail. Staff was very friendly and helpful upon check in at front desk and valet. In the AM they tried to give my coffee to someone else after I had been  waiting for a bit. A couple areas of service to be improved upon but being new hopefully they have it sorted out in some time. The property is located a few blocks from Santa Monica Pier and only one block from shopping. Lots of places to eat near here too. Great location for our family who enjoy all of these. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy D, General Manager at Courtyard by Marriott Santa Monica, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>This was a last minute weekend getaway to Santa Monica for the family. We found out at check in that the Marriott Courtyard is brand new, opening only one night before our arrival. We were the first to use our particular room. We are Marriott rewards members and have stayed in many Courtyard properties. This one is (and should be) the nicest we have stayed in. If your are familiar with Courtyards, the amenities are still the same, but decor and details are upgraded (could also read as new). Lovely little seating area on the second floor by the pool. Pool is tiny. In the rooms they have plug ins and USB charging ports everywhere. A nice touch considering our family is usually charging up to 5 devices at night. TV system has Netflix, Hulu, Pandora so you can use your accounts to watch your own programming or music. No carpet in the room! A nice touch I think. 
+We were excited to enjoy some wine at the end of the day on the patio we passed on the way to our room on the 6th floor, but come to find out it was a private patio for an adjoining room. We could have went to 2nd floor patio but my daughter had reported that is was closed off when she was there to use the hot tub. She also reported the hot tub wasn't heated. However, in the morning...This was a last minute weekend getaway to Santa Monica for the family. We found out at check in that the Marriott Courtyard is brand new, opening only one night before our arrival. We were the first to use our particular room. We are Marriott rewards members and have stayed in many Courtyard properties. This one is (and should be) the nicest we have stayed in. If your are familiar with Courtyards, the amenities are still the same, but decor and details are upgraded (could also read as new). Lovely little seating area on the second floor by the pool. Pool is tiny. In the rooms they have plug ins and USB charging ports everywhere. A nice touch considering our family is usually charging up to 5 devices at night. TV system has Netflix, Hulu, Pandora so you can use your accounts to watch your own programming or music. No carpet in the room! A nice touch I think. We were excited to enjoy some wine at the end of the day on the patio we passed on the way to our room on the 6th floor, but come to find out it was a private patio for an adjoining room. We could have went to 2nd floor patio but my daughter had reported that is was closed off when she was there to use the hot tub. She also reported the hot tub wasn't heated. However, in the morning I found the 2nd floor patio open for use. In the evening we tried to call front desk to inquire about patio and to get more towels but it went to voice mail. Staff was very friendly and helpful upon check in at front desk and valet. In the AM they tried to give my coffee to someone else after I had been  waiting for a bit. A couple areas of service to be improved upon but being new hopefully they have it sorted out in some time. The property is located a few blocks from Santa Monica Pier and only one block from shopping. Lots of places to eat near here too. Great location for our family who enjoy all of these. More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2019,3747 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>219</v>
+      </c>
+      <c r="X23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>236</v>
+      </c>
+      <c r="X26" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>236</v>
+      </c>
+      <c r="X27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>287</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>287</v>
+      </c>
+      <c r="O33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>296</v>
+      </c>
+      <c r="X33" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>296</v>
+      </c>
+      <c r="X34" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>310</v>
+      </c>
+      <c r="X35" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>310</v>
+      </c>
+      <c r="X36" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>331</v>
+      </c>
+      <c r="X39" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" t="s">
+        <v>341</v>
+      </c>
+      <c r="K40" t="s">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>344</v>
+      </c>
+      <c r="X40" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>352</v>
+      </c>
+      <c r="X41" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>355</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>356</v>
+      </c>
+      <c r="J42" t="s">
+        <v>357</v>
+      </c>
+      <c r="K42" t="s">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s">
+        <v>359</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>360</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>361</v>
+      </c>
+      <c r="X42" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>360</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s">
+        <v>372</v>
+      </c>
+      <c r="L44" t="s">
+        <v>373</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>374</v>
+      </c>
+      <c r="X44" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>382</v>
+      </c>
+      <c r="X45" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>382</v>
+      </c>
+      <c r="X46" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" t="s">
+        <v>393</v>
+      </c>
+      <c r="K47" t="s">
+        <v>394</v>
+      </c>
+      <c r="L47" t="s">
+        <v>395</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>360</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>396</v>
+      </c>
+      <c r="X48" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>411</v>
+      </c>
+      <c r="X49" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J50" t="s">
+        <v>416</v>
+      </c>
+      <c r="K50" t="s">
+        <v>417</v>
+      </c>
+      <c r="L50" t="s">
+        <v>418</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>419</v>
+      </c>
+      <c r="X50" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>423</v>
+      </c>
+      <c r="J51" t="s">
+        <v>424</v>
+      </c>
+      <c r="K51" t="s">
+        <v>425</v>
+      </c>
+      <c r="L51" t="s">
+        <v>426</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>427</v>
+      </c>
+      <c r="X51" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>432</v>
+      </c>
+      <c r="K52" t="s">
+        <v>433</v>
+      </c>
+      <c r="L52" t="s">
+        <v>434</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>435</v>
+      </c>
+      <c r="X52" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>444</v>
+      </c>
+      <c r="X53" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>452</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>453</v>
+      </c>
+      <c r="X54" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>457</v>
+      </c>
+      <c r="J55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>452</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>453</v>
+      </c>
+      <c r="X55" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>452</v>
+      </c>
+      <c r="O56" t="s">
+        <v>94</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>453</v>
+      </c>
+      <c r="X56" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>467</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>468</v>
+      </c>
+      <c r="J57" t="s">
+        <v>469</v>
+      </c>
+      <c r="K57" t="s">
+        <v>470</v>
+      </c>
+      <c r="L57" t="s">
+        <v>471</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>443</v>
+      </c>
+      <c r="O57" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>472</v>
+      </c>
+      <c r="X57" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>475</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>476</v>
+      </c>
+      <c r="J58" t="s">
+        <v>477</v>
+      </c>
+      <c r="K58" t="s">
+        <v>478</v>
+      </c>
+      <c r="L58" t="s">
+        <v>479</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>452</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>480</v>
+      </c>
+      <c r="X58" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>484</v>
+      </c>
+      <c r="J59" t="s">
+        <v>485</v>
+      </c>
+      <c r="K59" t="s">
+        <v>486</v>
+      </c>
+      <c r="L59" t="s">
+        <v>487</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>443</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>488</v>
+      </c>
+      <c r="X59" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64605</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>491</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>492</v>
+      </c>
+      <c r="J60" t="s">
+        <v>493</v>
+      </c>
+      <c r="K60" t="s">
+        <v>494</v>
+      </c>
+      <c r="L60" t="s">
+        <v>495</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>443</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>496</v>
+      </c>
+      <c r="X60" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Gregory S</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The first time I stayed at this lovely new hotel I was upgraded before I arrived to a huge studio with full floor to ceiling windows. Very impressed even with the view of the Metro line.The pool area and hot tub are just big enough.My second stay I had a basic room looking directly into a wall. I used online check in but they did not process the request. I then checked in around 1PM and they ran my card and put me on the list.At 3PM i was notified the room was ready. They then checked me in again (cr card and ID) and I got a room on the second floor.This is one of my favorite hotels in Santa Monica.Odd building design. Few balcony's, few windows that open and some very closed off rooms. ie. 1 small window looking into a wall or other interior view.I feel for the staff as they are just trying to get people checked in but would love for room assignments to be done for guest the morning of or at least at online check in.Most hotel assign upgrade and block rooms the day of arrival at the latest. This was like boarding a plane.Still love the hotel, area and friendly staff.More</t>
   </si>
   <si>
+    <t>MssMoss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r588597102-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The homeless people must love it here. While having a sandwich at the cafe, a homeless man came up and tapped on the window and was waved in by the staff. He wasn’t a guest nor did he order anything. He came in to watch a basketball game. The next man who was welcomed in, promptly chased the guests out who were trying to eat because of the overpowering stench of urine - not to mention the one bare foot. And forget about stepping out the door where you’re immediately greeted by multiple people begging and/or high as a kite. I’m sorry for the glaring societal problems in this area however, I did not ever feel safe. The hotel should be responsible for the security of the grounds and the common areas. I felt like I was volunteering at a homeless shelter - for $400 per night. More</t>
   </si>
   <si>
+    <t>Hannah_97ox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r587948688-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>Staff are friendly and welcoming, nothing is too much trouble. We were only in our room 10 minutes when a staff member came up and delivered a complimentary muffin with a candle and gorgeous plate arrangement for my 21st birthday, we had only briefly mentioned the occasion in passing to the check in staff and was blown away by their hospitality! The rooms are a very decent size with the bathrooms being impeccably clean and i’m VERT fond of the different shower settings. Would 100% recommend to a friend and will be visiting again for future trips to the area.More</t>
   </si>
   <si>
+    <t>karen6886</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r582472836-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>This hotel is a great location, only a few blocks from the pier and the Promenade.  You can walk to many restaurants and stores.  The building is new and the rooms are spacious with great bathrooms.  Some rooms have a balcony.  It is near the train.  I did not find noise to be an issue, it's just typical white noise that you would find staying in another city.  Staff was very accommodating.  nice workout room and small pool with a view.More</t>
   </si>
   <si>
+    <t>Susanloves2travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r580275888-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>Stayed for one night and liked a lot. Great bed, nice empty refrigerator, quiet, nice breakfast cafe. Started visit badly when no cart to take luggage. Later found out only 2 for the hotel. Not crazy about the uncarpeted floors, and no water to drink in the room. Great location to the pier and beach.More</t>
   </si>
   <si>
+    <t>Elsie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r578569690-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>New hotel with metro line station across the street for no hassle commute into downtown LA. You can rent bikes for touring around Santa Monica at the station as well. Just a few blocks from the pier, shopping and the beach. The new design features large rooms with hard wood floors and large showers. Water conservation notice in rooms. The faucet flow at the sink is very low-the shower was excellent. Their is an on site restaurant. I loved mural artwork and contemporary lobby furnishings. The pool and hot tub are located on the second floor. There is a fire pit and loads of comfortable seating. Very nice environment to relax throughout the day and the evening. All amenities require key access big plus. Three down sides- the soft mattress and the $42.00 parking fee. We found a garage couple blocks away for $17.50.  The staff was very friendly. However we waited way too long for assistance to checkin. Highly recommend checking out their rooms with balconies sun decks and ocean views. We had studio king with balcony before necessity forced us to switch to a double.  I would definitely stay here again. More</t>
   </si>
   <si>
+    <t>G650traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r577449573-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>Courtyard Santa Monica is in a great location.  A few blocks from the Santa Monica Pier.  Streets of shopping and restaurants just around the corner.  Small restaurant inside for breakfast and dismal exercise room.  Staff extremely nice.  ( Sergio )Prime location sub Courtyard Marriott amenities. More</t>
   </si>
   <si>
+    <t>Michelle C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r575237845-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>Or family of seven stayed here for 2 nights, booking a total of 3 rooms. Overall, it was a good experience but not someplace I would rush back to.  Rooms/location: The rooms were clean and comfortable.  We have allergies and like that there are no rugs.  The hotel was in easy walking distance of the Pier, Promenade and a wide variety of shopping and dining options.  We were not bothered by street noise but could hear our neighbor's television.Food:  The lobby cafe serves Starbuckcs coffee, and is overpriced and understaffed for the morning rush.  The lobby shop offers convenience food, mostly junk food options.  Staff:  The valet and front desk staff were okay, not especially friendly or helpful.  Parking: Parking is a predatory $42 per day. There is public parking available one block away for $17.50 (overnight rate).More</t>
   </si>
   <si>
+    <t>theskiing62018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r572975098-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>Excited to stay in downtown Santa Monica while on vacation. Picked this location - although a little pricy for a Courtyard — as close to everything, and Hotel recently remodeled. No carpet anywhere. Made for a very hollow room. Problem arose at 5am when noise woke us up from guest overhead.... the tap dancing/clicking went on for over an hour. Went to front desk who was confirmed they’re aware of potential noise issues.....they agreed how annoying it was! We could change rooms if we wanted. And was told marriott take care of us for the inconvenience / I thanked him. We were staying a second night. Our room averaged $400 per night. We left early got our flight. Found out I received a full bill. I emailed Marriott to let them know of our situation. They had the hotel call and gave a$100 credit... don’t get me wrong, staff was very nice. I expected a better resolution when they knew they had a problem. More</t>
   </si>
   <si>
+    <t>rzsandoval</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r567696891-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -408,6 +438,9 @@
     <t>I couldn't have been happier with this hotel.  We stayed here for the LA marathon and it was perfect.  The marathon finish line was only a couple of blocks away, so it's an easy walk back to the hotel after running all that way.  Also, the Santa Monica shuttle pick-up to the start line was blocks away, so another easy walk.  The Downtown Santa Monica metro stop is right across the street (we used it a couple of times).  If you are interested in tourist stuff, the 3rd Street Promenade is a block away.But what put it over the top for me was the service.  I wanted a late check-out so that I could shower in my room after the marathon but before I checked-out, and they were able to give me a 2:30pm checkout with no extra charge.  Thank you!The interior of the rooms are also great, especially the bathroom.  Everything is new!  There's also an on-site Starbucks.I'd stay here again!More</t>
   </si>
   <si>
+    <t>Stephanie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r567079348-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
     <t>Definitely a mixed bag at this new hotel. We chose it for the great location and the fact that we were traveling on points. The hotel is clean, new and nicely decorated. However...while I love the concept of laminate flooring in a hotel to keep things cleaner, the execution failed as we could hear EVERYTHING from upstairs. Another downside was that you could only control the thermostat to a certain point...no air conditioning below 68 degrees. For people who sleep warm, this was a definite bummer. Housekeeping was interesting...each day we couldn’t find important items and had to search the room...eventually finding them placed in random drawers or the closet (we didn’t unpack any of our items into these places, so it was an odd thing for them to put them there.)We also chose this hotel for the queen size beds vs. the standard doubles in many hotels. But the beds were so uncomfortable, we actually checked out a night early to drive home and sleep in our own beds. Parking is a ridiculous $42 a night. I also just called the hotel to check on some charges to my credit card and they have no record of us checking out early (we turned in our keys and spoke to a desk attendant) All in all, we wouldn’t visit again. Overpriced but adequate. More</t>
   </si>
   <si>
+    <t>ConMan89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r566920912-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t>Location is excellent! 3 blocks from the Pier and 2 blocks from 3rd street promenade. New hotel! That's the good! Now for the bad...literally across the street from Metro station, so every 5 minutes you hear "HONK". Reminds me of the Blues Brothers movie..."how often does the train go by?....so often you won't even notice"The acoustics need improved. The hotel has laminate flooring - no carpet. Very minimalistic design, so no sound absorption. Large room but very sparse. No frills. Also, I think Shrek was upstairs and very nervous. He paced back and forth and sounded like there was an earthquake.New concept, but probably not worth the Category 8. Location is the attraction here - IF you have earplugs!More</t>
   </si>
   <si>
+    <t>livlife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r564020659-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -477,6 +516,9 @@
     <t>We stayed here one night as a local "stay-cation", and were able to get a top floor room with a view of the ocean.  This is right next to the light rail station, so it was convenient to get around from the hotel.  It was nice to be so close to downtown Santa Monica and the pier.  Many restaurants to choose from that are a short walk away.  The hotel itself looks new and clean.  We enjoyed our room (two beds).  The room was clean and the staff were nice.  The only downside is since we are local, it is hard to justify paying to stay here.  We would like to go back on another "stay-cation".More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r563793844-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -495,6 +537,9 @@
     <t>This hotel is less then a year old. It has a great location. The rooms are clean. However for such a new structure I would expect the rooms to not feel so paper thin. It felt like there was zero privacy. I heard everything in the halls and neighbors next door. Beds were pretty basic. Pillows were good. Don't care for the modern retro beach themed rooms. Kinda obnoxious. Staff was nice. More</t>
   </si>
   <si>
+    <t>LnS2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r559899793-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -522,6 +567,9 @@
     <t>We stayed at this hotel to attend a wedding at the Bel Air Bay Club in Pacific Palisades up the PCH. The hotel is quite centrally located in Santa Monica. Parking is valet only and at $42 a day (incentive:Santa Monica has strict parking enforcement). The hotel lobby is bright and cheerful with a clean efficient ambience. The front desk staff is friendly and helpful. The elevators (3 of them for 6 floors) are roomy. The room is spacious with comfy beds and strong shower (no bathtubs). There are plenty of electrical outlets and a wall big screen TV. View is of another hotel directly across the street or a street car/tram terminal. The hotel is within walking distance from the Third Street   Promenade and there are many eating choices within walking distance e. g. on Broadway. More</t>
   </si>
   <si>
+    <t>Soccamomma1316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r559063084-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -546,6 +594,9 @@
     <t>We stayed here once we decided that West Hollywood was WAY too busy for us.  This was so much nice.  Good shopping and the pier within walking distance.  All the shopping and restaurants nearby make this hotel a great convenience.  I will definitely choose this hotel again if I'm ever in the area.More</t>
   </si>
   <si>
+    <t>Megan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r558329210-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -573,6 +624,9 @@
     <t>The perfect location to all things Santa Monica! You are just a few blocks from the pier, the beach, downtown, shopping, food. My mom &amp; I stayed here and felt very safe in the area walking alone. Room and bathroom were huge! Loved that the room had no nasty carpet, only a lament type hardwood. This hotel was the best value in terms of price &amp; quality in the area. Plus, our flight got in early and they were able to accommodate a 10am check in! Highly recommend!! More</t>
   </si>
   <si>
+    <t>Chanda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r557828461-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -591,6 +645,9 @@
     <t>I stayed 3 days at this Courtyard Marriott and it’s one of the nicer Courtyards I’ve stayed in.  It’s very clean, the staff is nice and the location is walking distance to the pier and shopping. The hotel is new as well, so that’s a bonus. The fitness room is nice - all equipment worked great. More</t>
   </si>
   <si>
+    <t>Brrrrett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r554823105-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -613,6 +670,9 @@
   </si>
   <si>
     <t>I was in town for business and stayed here - it is obviously right next to the metro, it is walkable to a large mall, and also very convenient to Santa Monica beach/pier/restaurants. Staff were all friendly and it met the expectations that I expect out of Courtyard locations of the Marriott brand. I did not have an issue with exterior light or sound as others have mentioned, so it may just depend on if your room is facing the "wrong" direction. While I didn't have a view beyond the adjacent section of the hotel and small courtyard in between, it was peaceful and quiet. Pool looked nice and fairly relaxing considering this is more of a city environment, but I did not use so can't speak much to it. Lobby is nice, typical Courtyard pay-for-food offerings, and lounge-like lobby seating. I would recommend.More</t>
+  </si>
+  <si>
+    <t>JenniferJames</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r550754921-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
@@ -637,6 +697,9 @@
 The furniture is a mishmash of IKEA meets the local kindergarten. The coffee table is a glass top on a small red...Usually Courtyards are a safe bet; you know what you are getting - standard comfort and reliability.  This Courtyard flirts with urban hip and makes a mess of it.  We had a corner executive suite on the 5th floor. The room is large, so is the bathroom. Apparently, all the executive suites are on this corner location on each floor.  The room is directly opposite the Santa Monica Metro with constant noise from the trains. Marriott was too cheap to consider their guests' comfort or they would have installed triple-pane balcony doors to keep the noise out; especially that ongoing beeping sound and announcements, which will bother you if you are a light sleeper. The balcony is large and could be welcoming if you don't mind all that noise. There is a partial ocean view. The electronically controlled blinds over the balcony door have about a 6" gap from the door, letting in the harsh lights from the metro and bus station, that shine brightly all night long.  I had to sleep on one side all night to keep the light out of my eyes. And when I opened my eyes, there was a huge Warhol-type painting of Debbie Harry staring at me.  Wouldn't a mellow surf or beach theme have been more appropriate for this beach location?The furniture is a mishmash of IKEA meets the local kindergarten. The coffee table is a glass top on a small red geodesic dome, there is some kind of ugly yellow chair and a large L-shaped sofa with a low back (had to stack up cushions to rest my head) and a huge lampshade hanging over the sofa, so you have to duck if you want to change spots on the sofa.Air conditioning: If you turn the A/C off automatic and put it on fan, the fan only goes full blast so you can't regulate the temperature effectively, but worse than that, the vent is directly over the bed, so you either go crazy with the noise from the a/c vent all night, or you suffocate when the auto cycle turns off, because you dare not open the balcony door to let in any fresh air due to the noise and bright lights.  We were offered another room, but it was small and the window was facing a wall looking directly into other rooms. It was too claustrophobic for me. I was also offered ear plugs, something I'm told other guests have requested who have occupied that room.The bed is comfortable and so were the pillows.  Water in the bathroom sink faucet comes out at a trickle. Fortunately the shower has some pressure to it. Turn on the faucet in the kitchen and the water come gushing out. There are toiletries in the bathroom. Unfortunately the body lotion was half used by a previous guest, and not replaced by housekeeping.  There is a Keurig coffee maker in the kitchen but the cups they gave us were too tall to fit in the machine.  Valet parking is $42 plus tax. The staff are friendly and well aware of the issues I've mentioned. What Marriott thought they were achieving with this experiment I don't know, but we will have to do some serious evaluation the next time we think a Courtyard might be a safe, reliable option for a quick business trip.More</t>
   </si>
   <si>
+    <t>BrettS83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r550380670-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -661,6 +724,9 @@
     <t>Excellent location a few blocks from Santa Monica pier. Very friendly and helpful staff, particularly Diego. This hotel is new with large comfortable, modern and clean rooms. We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Nikon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r539910163-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -688,6 +754,9 @@
     <t>This Hotel has a great location close to 4th and 3rd street, the Pier and the Metro. Comfortable rooms and frendly staff. A small but OK restaurant/bar to have breakfast or a beer or a glass of wine. alos convienient to have laindray facilities. You can hear the Metro but it did'nt bother me much.More</t>
   </si>
   <si>
+    <t>Jiten H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r539658137-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -715,6 +784,9 @@
     <t>A new hotel, easy to access, friendly, nice lobby with a cafe serving starbucks but little choice of food, also no croissants in the morning!Rooms are clean, large and extremely well planned and comfortable .My only grouse-I had bought some expensive gourmet cheese and cold cuts (sealed and unopened)  and stored it in the room fridge but forgot it on checkout, i returned a couple of hours later and the housekeeping had already disposed it ! I think this policy should be revisited by the hotel chain, and they should store it for a day before disposing off guest items. Its not that it would have spoilt as they were as yet unopened.   Also beware that all the good Santa Monica Hotels are very steep and overpriced,  USD 300+ is a bit steep for a courtyard.More</t>
   </si>
   <si>
+    <t>JimB58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r533912166-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -739,6 +811,9 @@
     <t>Spent a weekend at Courtyard in Santa Monica. I have stayed at some of the more popular beachfront hotels in Santa Monica in the past, and for me the Courtyard was as good or better than the much more expensive places in Santa Monica. The hotel is new, perfectly located across from the Metro station, 2 blocks from 3rd st. Promenade and 4 blocks to Santa Monica Pier. Everything was in close walking distance. The rooms are spacious, and the front desk staff was especially helpful and polite. Super price for one of the most expensive places locations in CA. Valet parking is stiff at $41/day, but if you don't mind walking your bags past homeless bums there is public parking available 2 blocks away at $17.50/day. I went for the hotel valet and felt that it was worth the piece of mind. More</t>
   </si>
   <si>
+    <t>nimesh p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r532459633-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -757,6 +832,9 @@
     <t>This hotel is a nice brand new property in a great location. The 5 star review is mainly for the customer service. Everyone was so nice and accommodating. I wish I could remember everyones name that helped us to give them a shoutout. Sergio the manager was quick to rectify issues that we had. This was out first trip with a newborn and with all the challenges we ran into, the staff were quick to help. The even froze our freezer packs for milk in the employee freezer every evening. Thank you for making the trip easier on this new parent!More</t>
   </si>
   <si>
+    <t>sazm42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r532358283-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -772,6 +850,9 @@
     <t>First of all, the hotel was lovely and I find no fault with the hotel.  It was the level of Marriott that I expected, with clean rooms and all the necessities met. What I want to make sure the traveler knows is that the area, while 5 short blocks near the beach, is inundated with homeless people that appear drugged out.  It was scary to encounter so many, even with my father and 6’2” son to protect me. So I just want to give you a heads up on this location.  Second, if you have a car, continue down Colorado street, and turn right on Second St. for a parking garage that charges a flat $17.50 per day.  If you park at the hotel, with tax and valet ‘fees’, you will pay $52.20 per day!!!  Keep this in mind. Just thought you’d want know what to expect if you stay at this hotel. More</t>
   </si>
   <si>
+    <t>Max W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r530355911-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -796,6 +877,9 @@
     <t>Friendly helpful staff who were very helpful in orientating us to the area. Rooms were good with plenty of usb points. The railway station is across the road and you can take a bus to the airport just around the corner. Everything is handy.More</t>
   </si>
   <si>
+    <t>jmiller3800</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r526869666-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -820,6 +904,9 @@
     <t>If you are looking for a hotel this is the place you want to stay at. Everyone there is Amazing! My daughter starting crying at 3:45am and Courtney at the front desk brought some milk we needed to our room, unbelievable!! She is so Nice! Also Jerry and Daniela at the little food place and front desk during the day they are awesome also. If there was a way to give 20 STARS I would. I am going to tell EVERYONE HOW AWESOME AND AMAZING THIS PLACE IS. I read reviews for two full day and picked this place. I definitely could not be happier. You folks DEFINITELY know how to treat your guest that's a FACT!! Thank You so much for making our anniversary and stay so Amazing. WE WILL DEFINITELY BE BACK SOON AND WE WILL BE SENDING PEOPLE. Oh valet people can't leave them out more than Amazing also very Helpful!!More</t>
   </si>
   <si>
+    <t>Jeff6455</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r526153009-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -844,6 +931,9 @@
     <t>Stayed at this new hotel for two nights while in town for business.  Truly mixed feelings, here is the good and not so good:Good:  New property so design is modern and you get that "new" smell.  Location is great close to mall, restaurants and 5-minutes to beach and pier.  Front desk staff were friendly and efficient as was the valet service.  Also liked the pool area, second level balcony - though did not use it.Negatives:  From my perspective, the biggest challenge was noise.  I could hear the person next to me talking on their phone after midnight word-for-word EVEN after turning my tv up to 6 to drown him out.  For some reason, the walls in this place are paper thin...made for a very frustrating and sleepless visit.  This alone will keep me from returning.  Otherwise, the lack of proper breakfast facility (only a Starbucks in the lobby), mandatory valet at $42/day were also negatives.  Unfortunate, there is good potential here, but noise dampening and better breakfast options would make it so much better.More</t>
   </si>
   <si>
+    <t>Stephen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r520942290-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -868,6 +958,9 @@
     <t>This stylish, contemporary hotel is just perfect for a short stay in Santa Monica. Four blocks from the beach, and one block from the fancy new mall on 3rd street. Sparse and lacking a lounge or restaurant - but who needs that when you are in the heart of Santa Monica?We heard that it had opened in March 2017 - and it looked and felt brand new and clean. No hesitation - great place to stay for overall value and location.More</t>
   </si>
   <si>
+    <t>Adam A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r516886243-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -895,6 +988,9 @@
     <t>So close to what we wanted - just a few minutes to 3rd street promenade, Santa Monica Pier, restaurants and beaches.  Two queen beds were perfect for me and my 3 kids.  Liked the Keurig coffee machine in the room.  Parking was a bit steep, with the valet parking, but comparable to other hotels in the area.  A great stay!More</t>
   </si>
   <si>
+    <t>shopkitten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r513084582-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -919,6 +1015,9 @@
     <t>Stayed for 4 nights. I can't recommend this hotel enough. Our king room with balcony was superb. Spacious, airy and well appointed. The service from the front desk was super (thank you Daniela!) The location is brilliant, just a 5/10min walk to the pier. Excellent bars, restaurants and shops just minutes away. The air con is brilliant keeping the room cool and airy. The onsite cafe/coffee shop is brilliant.The area felt safe. Thank you for a great stay! More</t>
   </si>
   <si>
+    <t>easygo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r511586679-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -937,6 +1036,9 @@
     <t>We stayed here in early August 2017.  It is about a 3 or 4 block walk to the pier.  We did not mind the short walk.  The parking is a little steep 42 dollars a day and there is cheaper parking nearby but they don't let you come and go.  We had one issue one night where we needed help from housekeeping at 3:00am and they got to our room so fast it was amazing.  I was very pleased with the staff in the hotel.  They did not have any bell staff to help you with your bags upon arrival but that was not a big deal to us.  We found it to be a very quiet hotel.  There is a building next to the hotel that is being renovated but we did not hear any noise from it.More</t>
   </si>
   <si>
+    <t>Ilana S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r510120783-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -961,6 +1063,9 @@
     <t>Location is great. Room is  clean, new and modern. Size is great, as well. However, parking is quite steep. If you can uber or lyft or train I highly recommend. room is large enough to have extra person. bathroom is large, too. all in all a good hotel. prices are steep for courtyard but you get what you get in Santa Monica.Nice pool  and gym as well.More</t>
   </si>
   <si>
+    <t>JD3213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r509861621-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -979,6 +1084,9 @@
     <t>Took the train from Downtown LA (stops right in front of the hotel). Train costs a few dollars, but you have to buy a TAP card. Still the convenience is off the chart. The Hotel is clean, and has a Starbucks (which seemed closed more often than open). The rooms are comfortable, but you really want to walk the two blocks or so to the Promenade. It is a franchise, so if you are a Marriott Member be prepared (and understanding) as they don't treat you like the real Marriott hotels.More</t>
   </si>
   <si>
+    <t>BLRfromVF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r508130028-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1000,6 +1108,9 @@
     <t>Hotel is new. The location is perfect. It is a few blocks away from the pier and the 3rd street promenade.  Staff were super friendly &amp; room was spacious. Close to everything. Santa Monica has a lot of homeless, i mean alot, but this hotel is far enough away from the mess yet still 3-4 blocks from everything. Clean inside and out.  Pool deck is fun, shaded in the afternoon and has large seating areas. Get out of your room and have a seat outside, day or night. Smallish pool, but fine for a dip and good for kids.Not really a location for ocean or beach views, in fact the view is of streets and the metro, yet surprisingly quiet. Mini mart and cafe are suitable for quick snacks and a Vonns is 3 blocks away. Its a solid choice for any trip to Santa Monica. Try Bruno's for pizza lunch or dinner, 1.5 blocks left of the pier.More</t>
   </si>
   <si>
+    <t>Joe S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r504028765-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1024,6 +1135,9 @@
     <t>Hotel is brand new.  The location is perfect.  It is a few blocks away from the pier and the 3rd street promenade.  Just far enough away from the crowds but in perfect walking distance to everything.  Subway is literally across the street.  Rooms were very nice and large.  We didn't notice any issues with water pressure ( as some reviews state).  Front desk employees were extremely nice and accommodating.  Service was excellent.  We thought the pool area was great.  It is on the second floor overlooking the street.  You can people watch all day and we found ourselves just hanging out there because there was plenty of room and it had a very comfortable feel.  Exercise room has all brand new equipment and was roomy.  Rooms had ceiling to floor windows.   Starbucks in the hotel - we were able to order breakfast there and charge to room.  Yes, parking is 42.00 a day, however that enables you to freely valet park and get your car whenever you want.  Service was excellent there too.  Car came out within seconds after handing valet attendant ticket.  Can't find anything to complain about for this hotel.  Would be my first choice for another stay in Santa Monica and would recommend to anyone looking to stay in the area.  Stayed there with a family of 4.  Kids loved it.More</t>
   </si>
   <si>
+    <t>karenbJ17SW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r503860478-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1039,6 +1153,9 @@
     <t>Nice new hotel &amp; only a short walk to the Pier &amp; close to the shopping mall &amp; restaurants. Staff were friendly &amp; room was lovely &amp; comfortable &amp; very clean. The only downside for us was the cost of parking &amp; no luggage porter or luggage storage room. More</t>
   </si>
   <si>
+    <t>iFaisal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r502665687-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1063,6 +1180,9 @@
     <t>New hotel situated perfectly next to Santa Monica place shopping mall and 3rd Street Promenade. The area is full of stores, restaurants and cafes. - Ample room with floor to ceiling window.- A tiny "grocery store" in the lobby where you can get your needs anytime and add them on your room account.- Like in most Marriott hotels, Internet TV available for youtube, Netflix, etc.- 46$ valet parking fee (no self-parking). I think there are cheaper choices around.- Small pool with limited chairs. However, the Jacuzzi was good and sufficient.More</t>
   </si>
   <si>
+    <t>CoolJdoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r500847977-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1087,6 +1207,9 @@
     <t>I stayed only 1 day during the beginning of May, 2017 and I felt it was very clean because it was a new one. And, the  most of employees were very friendly to explain and support me. The ballet parking system was good and they worked systematically. More</t>
   </si>
   <si>
+    <t>VegasPinay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r500506312-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1114,6 +1237,9 @@
     <t>My husband &amp; I needed a place to stay in Santa Monica while on a business trip to visit a client in Brentwood.  We were so glad we decided to stay at this Brand New hotel.  They have Valet Parking only ~ a great amenity considering that parking is a big challenge &amp; expensive in Santa Monica.We stayed at their corner suite room with a view of the ocean.  Large suite with large bathroom.   This hotel is in a perfect location.  Next to a nice high-end mall with Louis Vuitton, Bloomingdales, Tory Burch, Nordstrom, etc... Near 3rd Street Promenade. Lots of great restaurants within short walking distance.  Same street as the Santa Monica Pier.  The pier is about 3 blocks from the hotel.  The metro that takes you to Downtown LA is across the street.I want to commend the Front Desk Agent ~ Diego Castro.  Diego is very personable, very friendly and has impeccable customer service skills.  Diego made sure we had a great &amp; comfortable stay at their property.I highly recommend Courtyard Santa Monica!  Our other choice was Hilton on the other side of the freeway.  But, we are so glad we decided to stay at Courtyard.More</t>
   </si>
   <si>
+    <t>mdluvs2shop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r500300302-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1129,6 +1255,9 @@
     <t>The Courtyard is only 4 blocks to Santa Monica Pier/Beach. Because of this you save hundreds of dollars a night. I love an ocean view and was somewhat skeptical when I booked it but it is a really nice property. It appears to be pretty new with a fun, updated, beach themed decor.  You are in a very short walking distance of a mall, tons of restaurants, the beach and the pier. Although I did encounter homeless when I went out at 7AM for my cardio on the beach, I did not at any time feel unsafe. The staff was friendly and welcoming, the sleeping room was a medium size but the bathroom was huge! Kudos for having a big vanity!!! I am a frequent traveler and mostly stay at Marriott properties. Being a female (and a girly girl) I have a lot of "stuff" I bring with me and most often the bathrooms aren't large and leave you without anywhere to put all your stuff. I loved that it had a walk in shower and no tub as well. I would definitely stay at this property again.More</t>
   </si>
   <si>
+    <t>Starsky0161</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r498013448-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1153,6 +1282,9 @@
     <t>We stayed here for a week at the end of June. We were happy with our choice in Santa Monica as the hotel was new, fresh and very clean. The bed was very comfy and quiet so great for a good sleep. Clean towels and turndown everyday.The gym was free and open 24 hours with dumbells, 2 benches, running machines, bikes and ellipticals. Fresh towels and cold water on tap. The cafe was open til 10am and served a good healthy start bun with eggs and turkey but for $8.50. A bottle of water was $3.49 which is expensive.The wifi was free and fast. Helpful staff. Good location four blocks from the beach and one block from the shops. The metro station was right opposite.Had a slight issue/overcharge with charges and taxes via booking.com. The total pricing should be made clearer.More</t>
   </si>
   <si>
+    <t>Michelle V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r494875646-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1177,6 +1309,9 @@
     <t>Clean new hotel. Comfy bed convenient location. We rented a car and drove to USC and New York Film academy with no problems. The only option for parking was valid and I found that to be expensive since we stayed 5 nights. Other wise it was a nice mid priced hotel.More</t>
   </si>
   <si>
+    <t>lizbrandon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r494702489-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1195,6 +1330,9 @@
     <t>Very nice brand new hotel. Rooms are large and nicely decorated. All of the outlets have USB ports which made charging all my devices easy. Location is perfect only a few blocks from the beach and directly across the street from the light rail station.More</t>
   </si>
   <si>
+    <t>sing09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r492885807-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1219,6 +1357,9 @@
     <t>Really nice staff and generous rooms. Basic but value breakfast options. We really like a basic and low cost start to the day. Reasonable coffee and oatmeal or a bagel. Great location. Only downside is the cost of parking ...... More than a tank of gas More</t>
   </si>
   <si>
+    <t>Jeff S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r492633519-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1237,6 +1378,9 @@
     <t>I hate to write reviews like this but I feel that Marriott has done its customers a disservice. The hotel is new and thus clean. The room was nicely appointed, lots of space and plugins, etc. The service was good also. What's my beef? First the hotel has a noise issue. Too bad because I like the room, but I can hear the upstairs guests every footstep. Also, the Marriott site lists the hotel as having a "restaurant" on site.  This is just misleading advertising. There is a small cafe with a very limited menu and limited hours. Not much made to order except the Starbucks coffee. This is not a Starbucks either. So you have to walk two blocks to McDonalds or fourth blocks to a Denny's. There is plenty of lunch/dinner choices within a 15 min walk, but breakfast is another matter. There is a local place several blocks away but this hotel does not seem to cater to business clientele, with the food situation, IMO. As expensive as it is to stay here, this is really a disappointment.It's not a terrible hotel, just average. Too bad . . . Marriotts are generally above average.More</t>
   </si>
   <si>
+    <t>Pilam76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r490953568-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1264,6 +1408,9 @@
     <t>My GF and I stayed here for one night while visiting from Miami and this hotel is amazing! We were upgraded by Billy Dye and staff to an executive suite with a balcony and partial ocean view. Loved the hardwood floors; unlike carpet you know they are clean and with the sand and sea water it is a great idea; unlike other travelers I did not and never have any problems hearing guests in other rooms. Loved having the metro directly across the street, Only point of constructive criticism is the water pressure in the bathroom sink was weak. Maybe it was only my room but it was a great hotel 4 blocks from the ocean!More</t>
   </si>
   <si>
+    <t>StephenPumilia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r484907089-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1288,6 +1435,9 @@
     <t>One of many excellent Courtyard hotels in the greater Los Angeles area. This location is a short walk to the Santa Monica Pier and 3rd Street Promenade shops. Also visited many restaurants on 2nd Avenue. The hotel itself had excellent service, including a really quick valet staff. Plan to be back at this location soon.More</t>
   </si>
   <si>
+    <t>Jeffrey C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r481880515-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1312,6 +1462,9 @@
     <t>This courtyard is a couple blocks from the Santa Monica Pier.  It is easy to get to.  The rooms are very clean with huge television screens.  It has a pool on the second floor with cabanas.  Staff was very helpful.  I would recommend this hotel.  I few of the reviews seem to indicated that it was too modern but I would disagree.  There are so many places for breakfast, to eat, etc. right next door, across the block, etc.  It has a small cafe and a grab n go area.  I found the rooms very quiet with great pull curtains to completely black out the room.More</t>
   </si>
   <si>
+    <t>Travelmonke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r480404846-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1336,6 +1489,9 @@
     <t>I highly recommended this hotel. The service was excellent. The rooms were clean. The deck top pool and hot tub were the perfect end to a day. The location - so convenient. A 10 minute walk to everywhere - the pier, 3rd street, great restaurants, the beach. We were given a late check out - which worked out perfectly. This hotel has given thought to so many details. I love the ear phones in the gym - yes, I forgot mine. The infused water cooler  in the lobby is a nice touch to the warm day. The fire pit on the deck and the cabanas for a rest and read. The room was quiet. With the metro across the street, I was certain there would be more noise. The bathroom spacious and spotless. There was comments about the expensive valet parking but with everything within walking distance, you don't need a car and if you do, lots of public lots in the area. Nothing but check marks for this hotel. More</t>
   </si>
   <si>
+    <t>Phil L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r475527824-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1363,6 +1519,9 @@
     <t>Not your Grandma's Courtyard.  Modern with a hip accent throughout the hotel make it a great fit for this beach community.  Spacious rooms, with comfortable bed, brightly colored couch, hardwood floors and giant surfer mural in the bathroom complement the floor to ceiling windows (there are a variety of rooms based on the exterior look of the building, so this may not be your experience).  The small pool, spa, gym and fire pit on the second floor add an element of fun to the hotel. Visited when the hotel had been open for only two weeks, but getting it all worked out.  A nice place to stay a few blocks from the pier, a block from the shopping hub and across the street from the new Expo metro line.More</t>
   </si>
   <si>
+    <t>Erica S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r475055554-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1390,6 +1549,9 @@
     <t>Stayed 2 nights at this hotel before heading to N LA for a wedding.  Didn't rent a car so I wanted a hotel near Santa Monica pier and near shopping.  This hotel has a great location.  It's clean, has wood floors in the room, nice size shower and the staff was VERY nice and helpful.  The Metro train is right across the street, and although we didn't use it, it's a good option.  I would definitely recommend this hotel if you want some place modern, nice and clean. I also recommend taking advantage of the sitting area out by the pool, which has a very nice fire pit.More</t>
   </si>
   <si>
+    <t>fonda2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r475035329-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1405,6 +1567,9 @@
     <t>In a nutshell:1. The mattress was very uncomfortable, spongy, and soft.2. There is absolutely ZERO soundproofing.  The cleaning person was cleaning the room immediately above us (at 6:30am) and we could hear EVERYTHING, including footsteps, the vacuum cleaner racket, you name it.3. I called the hotel and was told Marriott parking was $42 and that Public Parking was several blocks away.  We paid for the Mariott parking ($42 plus $4.20 tax), but later noticed that there was ample public parking only ONE block from the hotel (a few seconds away).  Cost only $17.50/day.What a let down.More</t>
   </si>
   <si>
+    <t>Gayle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r474769745-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1423,6 +1588,9 @@
     <t>We ultimately selected this hotel because it was new, but it proved to be extremely uncomfortable. The bed was not comfortable, the furniture was not comfortable and the tile floors made for very loud upstairs neighbors. When the cleaning staff started vacuuming that tile floor at 8:45 in the morning it made sleeping-in impossible. (It seems that they made absolutely no accommodation for the fact that additional soundproofing would be needed if they were using tile on the floor.) In fact, at one point I could hear someone in another room unzipping their luggage! I would not recommend this for a vacation.There are two major PROs: 1) The staff - the customer service was very good  2) they have smart TVs that let you watch Netflix!!!!HINT: There is no place to park in front of the hotel so drive into the side entrance parking garage off of 5th for check-in.More</t>
   </si>
   <si>
+    <t>Pinman1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r473500253-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1447,6 +1615,9 @@
     <t>I stayed there opening weekend, the location is excellent close to shopping and the beach.  The rooms are very nice and modern.  Outside of that there were a couple small complaints.The TV was not functional, displaying a too-dark-to-see picture.  The front desk clerk didn't seem to care when I complained about it, which is unfortunate considering the high cost of my stay.Also the parking charge is insanely high for hotel guests, nearly 300% higher than the day rate for non-hotel guests.  I think they need to balance that out.More</t>
   </si>
   <si>
+    <t>Cari B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r473030953-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1471,6 +1642,9 @@
     <t>The staff was very nice, but since they were brand new, still working out a few kinks. The bathrooms were huge and nice and modern and really nice. The beds were fine, but the comforter didn't have a duvet, only sheets on top and bottom which didn't stay on. The new modern privacy lock locked without us in the room, and the maintenance staff had to figure out how to jerryrig it to get us in. Breakfast options are only fair. But the fact that the property is brand new, with hardworking and nice staff is a big plus. Stay here for business for sure - clean, convenient, modern, comfortable. Two blocks from the Pier. They have nice bikes you can rent to ride along the beach. For families - pool was small but nice, but eat breakfast elsewhere. Plenty of good places nearby for that.More</t>
   </si>
   <si>
+    <t>SF94597</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r470736109-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
   </si>
   <si>
@@ -1493,6 +1667,9 @@
   </si>
   <si>
     <t>Hotel opened earlier this month and everything is new and clean.  Rooms are functional. Lobby has a lot of seating. Location is about three blocks from the pier and across from mass transit.  With any new hotel with new staff - a few kinks to work out and expect will happen.  For example, liked Kuerig coffee machine in room, however, only one caffeinated coffee pod for two guests. Surprisingly no benefit for elite Marriott status. I personally hate to valet car and at $42 per night steep price, although in line with other hotels in area. Valet service was efficient.  More</t>
+  </si>
+  <si>
+    <t>Mike G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d10805928-r468537319-Courtyard_by_Marriott_Santa_Monica-Santa_Monica_California.html</t>
@@ -2023,43 +2200,47 @@
       <c r="A2" t="n">
         <v>64605</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>4712</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2077,56 +2258,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64605</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>133439</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2138,56 +2323,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64605</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>133440</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2199,56 +2388,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64605</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>133441</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2266,56 +2459,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64605</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>133442</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2327,56 +2524,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64605</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>133443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2388,47 +2589,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64605</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>90296</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -2445,56 +2650,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64605</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>9032</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2512,56 +2721,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64605</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>133444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2573,56 +2786,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64605</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>133445</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2638,56 +2855,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64605</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>6262</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2699,56 +2920,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64605</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>133446</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2764,56 +2989,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64605</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>133447</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2829,56 +3058,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64605</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2890,56 +3123,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64605</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>133448</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2951,56 +3188,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64605</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>133449</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3018,56 +3259,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64605</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>37596</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>179</v>
       </c>
-      <c r="L18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>164</v>
-      </c>
       <c r="O18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3079,56 +3324,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64605</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>133450</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3140,56 +3389,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64605</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>133451</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3207,56 +3460,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64605</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>133452</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3276,50 +3533,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64605</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>36650</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3331,56 +3592,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64605</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>133453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3398,56 +3663,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="X23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="Y23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64605</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>133454</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3465,56 +3734,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="X24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64605</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>133455</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3526,56 +3799,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64605</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>133456</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3591,56 +3868,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64605</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>133457</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3652,56 +3933,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64605</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>133458</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3713,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="X28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64605</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>133459</v>
+      </c>
+      <c r="C29" t="s">
+        <v>285</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3774,56 +4063,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64605</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>133460</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3835,56 +4128,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="X30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64605</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>19814</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3896,56 +4193,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="X31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64605</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>11767</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="J32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3961,56 +4262,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="X32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64605</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>85149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4022,56 +4327,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="X33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64605</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>133461</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4087,56 +4396,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="X34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64605</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>90221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>338</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4154,56 +4467,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="X35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64605</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>133462</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4221,56 +4538,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="X36" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64605</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>133463</v>
+      </c>
+      <c r="C37" t="s">
+        <v>354</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4288,56 +4609,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="X37" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64605</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>298</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4355,56 +4680,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="X38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64605</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>95205</v>
+      </c>
+      <c r="C39" t="s">
+        <v>371</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4416,56 +4745,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="X39" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64605</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>133464</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4477,47 +4810,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="X40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64605</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>133465</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="J41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -4534,56 +4871,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="X41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="Y41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64605</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>133466</v>
+      </c>
+      <c r="C42" t="s">
+        <v>395</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="J42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4601,56 +4942,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="X42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="Y42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64605</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>133467</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="J43" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4666,56 +5011,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="X43" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="Y43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64605</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>133468</v>
+      </c>
+      <c r="C44" t="s">
+        <v>411</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="J44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="K44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="L44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4727,56 +5076,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="X44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="Y44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64605</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>3432</v>
+      </c>
+      <c r="C45" t="s">
+        <v>420</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="J45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4788,56 +5141,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="X45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="Y45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64605</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>133469</v>
+      </c>
+      <c r="C46" t="s">
+        <v>429</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="J46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="K46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="L46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -4855,56 +5212,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="X46" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="Y46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64605</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>133470</v>
+      </c>
+      <c r="C47" t="s">
+        <v>436</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="J47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="K47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4916,56 +5277,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64605</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>4598</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4977,56 +5342,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64605</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>133471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>452</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="K49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="L49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5042,56 +5411,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="X49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="Y49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64605</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>133472</v>
+      </c>
+      <c r="C50" t="s">
+        <v>462</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="J50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="L50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="O50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5109,56 +5482,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="X50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64605</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>7461</v>
+      </c>
+      <c r="C51" t="s">
+        <v>471</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="J51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="K51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="L51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5174,56 +5551,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="X51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="Y51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64605</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>133473</v>
+      </c>
+      <c r="C52" t="s">
+        <v>480</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="K52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="L52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5235,56 +5616,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="X52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64605</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>48124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>489</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="K53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5302,56 +5687,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="X53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="Y53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64605</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>35752</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="K54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="O54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5367,56 +5756,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64605</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>133474</v>
+      </c>
+      <c r="C55" t="s">
+        <v>509</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="J55" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="K55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="L55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5432,56 +5825,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64605</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>67135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>515</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="J56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="K56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="L56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="O56" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5497,56 +5894,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="X56" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="Y56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64605</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>133475</v>
+      </c>
+      <c r="C57" t="s">
+        <v>522</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="J57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="K57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="L57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5562,56 +5963,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="X57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="Y57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64605</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>89267</v>
+      </c>
+      <c r="C58" t="s">
+        <v>531</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="J58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="K58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="L58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5629,56 +6034,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="X58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="Y58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64605</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>113121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>540</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="J59" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="K59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="L59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5690,56 +6099,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="X59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="Y59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64605</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>4910</v>
+      </c>
+      <c r="C60" t="s">
+        <v>549</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="J60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="K60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="L60" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5751,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="X60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="Y60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_169.xlsx
@@ -2272,7 +2272,7 @@
         <v>64605</v>
       </c>
       <c r="B3" t="n">
-        <v>133439</v>
+        <v>164273</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2337,7 +2337,7 @@
         <v>64605</v>
       </c>
       <c r="B4" t="n">
-        <v>133440</v>
+        <v>164274</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -2402,7 +2402,7 @@
         <v>64605</v>
       </c>
       <c r="B5" t="n">
-        <v>133441</v>
+        <v>164275</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -2473,7 +2473,7 @@
         <v>64605</v>
       </c>
       <c r="B6" t="n">
-        <v>133442</v>
+        <v>164276</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -2538,7 +2538,7 @@
         <v>64605</v>
       </c>
       <c r="B7" t="n">
-        <v>133443</v>
+        <v>164277</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -2735,7 +2735,7 @@
         <v>64605</v>
       </c>
       <c r="B10" t="n">
-        <v>133444</v>
+        <v>164278</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -2800,7 +2800,7 @@
         <v>64605</v>
       </c>
       <c r="B11" t="n">
-        <v>133445</v>
+        <v>164279</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -2934,7 +2934,7 @@
         <v>64605</v>
       </c>
       <c r="B13" t="n">
-        <v>133446</v>
+        <v>164280</v>
       </c>
       <c r="C13" t="s">
         <v>149</v>
@@ -3003,7 +3003,7 @@
         <v>64605</v>
       </c>
       <c r="B14" t="n">
-        <v>133447</v>
+        <v>164281</v>
       </c>
       <c r="C14" t="s">
         <v>156</v>
@@ -3137,7 +3137,7 @@
         <v>64605</v>
       </c>
       <c r="B16" t="n">
-        <v>133448</v>
+        <v>164282</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
@@ -3202,7 +3202,7 @@
         <v>64605</v>
       </c>
       <c r="B17" t="n">
-        <v>133449</v>
+        <v>164283</v>
       </c>
       <c r="C17" t="s">
         <v>183</v>
@@ -3338,7 +3338,7 @@
         <v>64605</v>
       </c>
       <c r="B19" t="n">
-        <v>133450</v>
+        <v>164284</v>
       </c>
       <c r="C19" t="s">
         <v>202</v>
@@ -3403,7 +3403,7 @@
         <v>64605</v>
       </c>
       <c r="B20" t="n">
-        <v>133451</v>
+        <v>164285</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
@@ -3474,7 +3474,7 @@
         <v>64605</v>
       </c>
       <c r="B21" t="n">
-        <v>133452</v>
+        <v>164286</v>
       </c>
       <c r="C21" t="s">
         <v>218</v>
@@ -3606,7 +3606,7 @@
         <v>64605</v>
       </c>
       <c r="B23" t="n">
-        <v>133453</v>
+        <v>148668</v>
       </c>
       <c r="C23" t="s">
         <v>234</v>
@@ -3677,7 +3677,7 @@
         <v>64605</v>
       </c>
       <c r="B24" t="n">
-        <v>133454</v>
+        <v>164287</v>
       </c>
       <c r="C24" t="s">
         <v>244</v>
@@ -3748,7 +3748,7 @@
         <v>64605</v>
       </c>
       <c r="B25" t="n">
-        <v>133455</v>
+        <v>164288</v>
       </c>
       <c r="C25" t="s">
         <v>254</v>
@@ -3813,7 +3813,7 @@
         <v>64605</v>
       </c>
       <c r="B26" t="n">
-        <v>133456</v>
+        <v>164289</v>
       </c>
       <c r="C26" t="s">
         <v>263</v>
@@ -3882,7 +3882,7 @@
         <v>64605</v>
       </c>
       <c r="B27" t="n">
-        <v>133457</v>
+        <v>164290</v>
       </c>
       <c r="C27" t="s">
         <v>270</v>
@@ -3947,7 +3947,7 @@
         <v>64605</v>
       </c>
       <c r="B28" t="n">
-        <v>133458</v>
+        <v>164291</v>
       </c>
       <c r="C28" t="s">
         <v>276</v>
@@ -4012,7 +4012,7 @@
         <v>64605</v>
       </c>
       <c r="B29" t="n">
-        <v>133459</v>
+        <v>164292</v>
       </c>
       <c r="C29" t="s">
         <v>285</v>
@@ -4077,7 +4077,7 @@
         <v>64605</v>
       </c>
       <c r="B30" t="n">
-        <v>133460</v>
+        <v>164293</v>
       </c>
       <c r="C30" t="s">
         <v>294</v>
@@ -4341,7 +4341,7 @@
         <v>64605</v>
       </c>
       <c r="B34" t="n">
-        <v>133461</v>
+        <v>164294</v>
       </c>
       <c r="C34" t="s">
         <v>331</v>
@@ -4481,7 +4481,7 @@
         <v>64605</v>
       </c>
       <c r="B36" t="n">
-        <v>133462</v>
+        <v>164295</v>
       </c>
       <c r="C36" t="s">
         <v>347</v>
@@ -4552,7 +4552,7 @@
         <v>64605</v>
       </c>
       <c r="B37" t="n">
-        <v>133463</v>
+        <v>164296</v>
       </c>
       <c r="C37" t="s">
         <v>354</v>
@@ -4759,7 +4759,7 @@
         <v>64605</v>
       </c>
       <c r="B40" t="n">
-        <v>133464</v>
+        <v>164297</v>
       </c>
       <c r="C40" t="s">
         <v>377</v>
@@ -4824,7 +4824,7 @@
         <v>64605</v>
       </c>
       <c r="B41" t="n">
-        <v>133465</v>
+        <v>164298</v>
       </c>
       <c r="C41" t="s">
         <v>386</v>
@@ -4885,7 +4885,7 @@
         <v>64605</v>
       </c>
       <c r="B42" t="n">
-        <v>133466</v>
+        <v>164299</v>
       </c>
       <c r="C42" t="s">
         <v>395</v>
@@ -4956,7 +4956,7 @@
         <v>64605</v>
       </c>
       <c r="B43" t="n">
-        <v>133467</v>
+        <v>164300</v>
       </c>
       <c r="C43" t="s">
         <v>405</v>
@@ -5025,7 +5025,7 @@
         <v>64605</v>
       </c>
       <c r="B44" t="n">
-        <v>133468</v>
+        <v>164301</v>
       </c>
       <c r="C44" t="s">
         <v>411</v>
@@ -5155,7 +5155,7 @@
         <v>64605</v>
       </c>
       <c r="B46" t="n">
-        <v>133469</v>
+        <v>164302</v>
       </c>
       <c r="C46" t="s">
         <v>429</v>
@@ -5226,7 +5226,7 @@
         <v>64605</v>
       </c>
       <c r="B47" t="n">
-        <v>133470</v>
+        <v>164303</v>
       </c>
       <c r="C47" t="s">
         <v>436</v>
@@ -5356,7 +5356,7 @@
         <v>64605</v>
       </c>
       <c r="B49" t="n">
-        <v>133471</v>
+        <v>164304</v>
       </c>
       <c r="C49" t="s">
         <v>452</v>
@@ -5425,7 +5425,7 @@
         <v>64605</v>
       </c>
       <c r="B50" t="n">
-        <v>133472</v>
+        <v>164305</v>
       </c>
       <c r="C50" t="s">
         <v>462</v>
@@ -5565,7 +5565,7 @@
         <v>64605</v>
       </c>
       <c r="B52" t="n">
-        <v>133473</v>
+        <v>164306</v>
       </c>
       <c r="C52" t="s">
         <v>480</v>
@@ -5770,7 +5770,7 @@
         <v>64605</v>
       </c>
       <c r="B55" t="n">
-        <v>133474</v>
+        <v>164307</v>
       </c>
       <c r="C55" t="s">
         <v>509</v>
@@ -5908,7 +5908,7 @@
         <v>64605</v>
       </c>
       <c r="B57" t="n">
-        <v>133475</v>
+        <v>164308</v>
       </c>
       <c r="C57" t="s">
         <v>522</v>
